--- a/Mental Health Products.xlsx
+++ b/Mental Health Products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annekleine/Dropbox/Human_AI/Mental_heal/MentalHealth_AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B1FBDA-ABD5-8A44-AAC2-73F6150CDCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AFE61E-A4F5-8046-B0E9-1E7FC1F036A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="0" windowWidth="18560" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14300" windowHeight="16280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,150 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Anka K</author>
+  </authors>
+  <commentList>
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{8A334D93-AE1A-614A-AB5D-88791A4E2502}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>QUADAS-2 criteria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{DE7ACCB0-AA16-FE44-AF9C-0F462A715127}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GRADE criteria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{64B70843-A1EF-5C4A-BA58-43BA23E2704B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S. Korea Random sample from health insurance registry of all S. Korean residents</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{F552E3A2-2445-8F44-9563-9CBE4EC9AFC3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>819,951 (573,965 training; 1782 suicide deaths) (245,986 testing; 764 suicide deaths)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="459">
   <si>
     <t>Firm</t>
   </si>
@@ -856,24 +998,15 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Study Setting</t>
-  </si>
-  <si>
     <t>Age Range</t>
   </si>
   <si>
-    <t>Selected Predictors</t>
-  </si>
-  <si>
     <t>AI Method</t>
   </si>
   <si>
     <t>Validation type</t>
   </si>
   <si>
-    <t>Best algorithm/ performance</t>
-  </si>
-  <si>
     <t>Conclusion</t>
   </si>
   <si>
@@ -979,30 +1112,15 @@
     <t>Prediction</t>
   </si>
   <si>
-    <t>South India Research Unit, CSI Holdworth Memorial Hospital, Mysuru</t>
-  </si>
-  <si>
-    <t>Persons born between 1934-1966, from the MYNAH database</t>
-  </si>
-  <si>
-    <t>270 patient records</t>
-  </si>
-  <si>
     <t xml:space="preserve">27-67 years </t>
   </si>
   <si>
     <t>Depression, physical frailty, pulmonary function, BMI, LDL</t>
   </si>
   <si>
-    <t>SML</t>
-  </si>
-  <si>
     <t>cross validation</t>
   </si>
   <si>
-    <t>XGBoost: accuracy= 98% SN=98% SP=94%</t>
-  </si>
-  <si>
     <t>Clinical measures can be used to distinguish whether someone has depression.</t>
   </si>
   <si>
@@ -1018,30 +1136,15 @@
     <t>Predict probability of suicide death using health insurance records</t>
   </si>
   <si>
-    <t>S. Korea Random sample from health insurance registry of all S. Korean residents</t>
-  </si>
-  <si>
-    <t>Subjects in the National Health Insurance Service (NHIS)–Cohort Database from 2004-2013; Suicide deaths based on ICD-10 codes</t>
-  </si>
-  <si>
-    <t>819,951 (573,965 training; 1782 suicide deaths) (245,986 testing; 764 suicide deaths)</t>
-  </si>
-  <si>
     <t>14+</t>
   </si>
   <si>
     <t>Baseline sociodemographic, ICD-10 coded medical conditions</t>
   </si>
   <si>
-    <t>SML DL Stats: cox regression</t>
-  </si>
-  <si>
     <t>cross validation, in sample test</t>
   </si>
   <si>
-    <t>Cox regression: training AUC=0.72 Testing: AUC=0.69</t>
-  </si>
-  <si>
     <t>Male sex, older age, lower income, medical aid insurance, &amp; disability were linked with suicide deaths at 10-year follow-up.</t>
   </si>
   <si>
@@ -1051,21 +1154,12 @@
     <t xml:space="preserve">Year of publication </t>
   </si>
   <si>
-    <t>Study design</t>
-  </si>
-  <si>
     <t>Sample Size model development</t>
   </si>
   <si>
-    <t>Sample size test dataset</t>
-  </si>
-  <si>
     <t>Subjects model development</t>
   </si>
   <si>
-    <t>Subjects test dataset</t>
-  </si>
-  <si>
     <t>Number of folds</t>
   </si>
   <si>
@@ -1085,6 +1179,382 @@
   </si>
   <si>
     <t>Overall quality of evidence</t>
+  </si>
+  <si>
+    <t>Patient selection</t>
+  </si>
+  <si>
+    <t>Index test</t>
+  </si>
+  <si>
+    <t>Reference standard</t>
+  </si>
+  <si>
+    <t>Flow and timing</t>
+  </si>
+  <si>
+    <t>Data management</t>
+  </si>
+  <si>
+    <t>PubMed</t>
+  </si>
+  <si>
+    <t>("psych*" OR ment* OR disorder OR paranoi* OR schiz* OR delusion* OR psycho* OR mani* OR bipolar OR depress* OR dysthym* OR cyclothym* OR mood OR affect* OR anxi* OR phobi* OR adjustment OR stress* OR possess* OR dissociat* OR compuls* OR obsess* OR neurasthenia OR deperson* OR dereali* OR agoraphob* OR somat*) AND (therap* OR counsel* OR psychotherap* OR session OR "clinical assessment" OR patient OR client) AND ("artificial intelligence" OR "machine learning" OR "deep learning" OR "Computer assisted diagnosis" OR "AI diagnosis" OR "Data science" OR "Learning systems" OR "Big data" OR "reinforcement learning" OR "supervised learning" OR "unsupervised learning" OR "active learning" OR "neural network" OR "natural language processing" OR "text mining" OR "support vector" OR "naive bayes" OR "bayesian" OR boosting OR "machine intelligence" OR "computational intelligence" OR "decision tree" OR "ensemble tree" OR "random forrest" OR clustering OR "fuzzy model" OR "computational inference" OR "intelligent agent" OR "computer reasoning" OR "computer vision" OR "data mining" OR "neuronal network" OR "data analytics" OR "ICT" OR "computer-implemented" OR "expert system" OR "robotic*")</t>
+  </si>
+  <si>
+    <t>((machine learning) OR (artificial intelligence)) AND (("psych*" OR ment* OR paranoi* OR schiz* OR delusion* OR manic OR bipolar OR depress* OR dysthym* OR cyclothym* OR anxi* OR phobi* OR stress* OR dissociat* OR compuls* OR obsess* OR neurasthenia OR deperson* OR dereali* OR agoraphob*))</t>
+  </si>
+  <si>
+    <t>https://kintsugihello.com/</t>
+  </si>
+  <si>
+    <t>Kintsugi</t>
+  </si>
+  <si>
+    <t>Shatte et al., 2019</t>
+  </si>
+  <si>
+    <t>Lueken et al., 2015</t>
+  </si>
+  <si>
+    <t>Predict depressive comorbidity in anxiety patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leave one out cross validation </t>
+  </si>
+  <si>
+    <t>18-65</t>
+  </si>
+  <si>
+    <t>Mean age</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whole-brain beta images </t>
+  </si>
+  <si>
+    <t>Best algorithm</t>
+  </si>
+  <si>
+    <t>Controlled confounders</t>
+  </si>
+  <si>
+    <t>Performance confounders controlled</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany </t>
+  </si>
+  <si>
+    <t>Multicenter</t>
+  </si>
+  <si>
+    <t>Anxiety patients</t>
+  </si>
+  <si>
+    <t>Unicenter</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Data modality</t>
+  </si>
+  <si>
+    <t>Health records</t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Supervised ML</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>Cox Regression</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Not decreased</t>
+  </si>
+  <si>
+    <t>Ulrike Lueken: Lueken_U@ukw.de</t>
+  </si>
+  <si>
+    <t>Lueken, U., Straube, B., Yang, Y., Hahn, T., Beesdo-Baum, K., Wittchen, H. U., ... &amp; Kircher, T. (2015). Separating depressive comorbidity from panic disorder: a combined functional magnetic resonance imaging and machine learning approach. Journal of affective disorders, 184, 182-192.</t>
+  </si>
+  <si>
+    <t>Tran &amp; Kavuluru, 2017</t>
+  </si>
+  <si>
+    <t>it would make it possible for physicians and other healthcare professionals to make quick assessments, based on a relatively small narrative, that could lead to early hints of a mental disorder</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health records </t>
+  </si>
+  <si>
+    <t>Text notes</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>63.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN with output score thresholding </t>
+  </si>
+  <si>
+    <t>Zhou et al., 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predict depression level or suicide possibility </t>
+  </si>
+  <si>
+    <t>Multimodal</t>
+  </si>
+  <si>
+    <t>Details data type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head movement, heart rate, eye blink, pupillary analysis, facial expression, user interaction tracking, content tracking of tweets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimodal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pupil radius, head movement rate, eye blinking rate, facial expression, heart rate, textual tweets sentiment, image sentiment, mouse moving distance, keystroke rate, mouse click rate, mouse wheel slide </t>
+  </si>
+  <si>
+    <t>Ensemble tree</t>
+  </si>
+  <si>
+    <t>Unsupervised ML</t>
+  </si>
+  <si>
+    <t>Logistic regression</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>0.815</t>
+  </si>
+  <si>
+    <t>0.710</t>
+  </si>
+  <si>
+    <t>Using noncontact multimodal signals, user interaction and content analysis, our system is able to infer the user’s current mental state</t>
+  </si>
+  <si>
+    <t>May help clinician to evaluate patients' mood states</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publication status </t>
+  </si>
+  <si>
+    <t>davidchouzdw@gmail.com</t>
+  </si>
+  <si>
+    <t>PUB</t>
+  </si>
+  <si>
+    <t>Suidicality</t>
+  </si>
+  <si>
+    <t>Comorbidity</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Liu et al., 2015</t>
+  </si>
+  <si>
+    <t>Differentiate anxiety patients from others</t>
+  </si>
+  <si>
+    <t>Social anxiety disorder</t>
+  </si>
+  <si>
+    <t>Zhou D, Luo J, Silenzio V, et al. Tackling Mental Health by Integrating Unobtrusive Multimodal
+Sensing. AAAI Published Online First:
+2015.http://www.aaai.org/ocs/index.php/AAAI/AAAI15/paper/download/9546/9334</t>
+  </si>
+  <si>
+    <t>Tran T, Kavuluru R. Predicting mental conditions based on ‘history of present illness’ in
+psychiatric notes with deep neural networks. J Biomed Inform 2017;75S:S138–48.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liu F, Guo W, Fouche J-P, et al. Multivariate classification of social anxiety disorder using </t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Half depression patients, half  general</t>
+  </si>
+  <si>
+    <t>MR images</t>
+  </si>
+  <si>
+    <t>Functional images were performed by a single-shot, gradientrecalled echo-planar imaging (EPI) sequence</t>
+  </si>
+  <si>
+    <t>18-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half social anxiety patients, half general </t>
+  </si>
+  <si>
+    <t>Detailed category</t>
+  </si>
+  <si>
+    <t>Differentiation healthy and ill</t>
+  </si>
+  <si>
+    <t>Predict mental conditions based on illness history data</t>
+  </si>
+  <si>
+    <t>Detection mental illness</t>
+  </si>
+  <si>
+    <t>Detection comorbidity</t>
+  </si>
+  <si>
+    <t>Predict suicidality</t>
+  </si>
+  <si>
+    <t>Detection depression</t>
+  </si>
+  <si>
+    <t>Selected features</t>
+  </si>
+  <si>
+    <t>148 features across the default mode network (DMN), visual network (VN), sensory-motor network (SMN), and affective network (AN)</t>
+  </si>
+  <si>
+    <t>Sample size test dataset/ control group</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain activity (MRI data) is a useful tool to differentiate individuals suffering from social anxiety disorder from healthy individuals </t>
+  </si>
+  <si>
+    <t>The current study provided evidence that functional
+connections have good diagnostic potential. Moreover, the
+identified altered functional connectivity and high weight
+regions might provide a complementary method of the
+clinical diagnosis of SAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suggested practical benefit </t>
+  </si>
+  <si>
+    <t>H. Chen: chenhf@uestc.edu.cn</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>Identify ADS patients</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjects validation dataset/ control group </t>
+  </si>
+  <si>
+    <t>Validation dataset</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>44 ASD, 44 healthy</t>
+  </si>
+  <si>
+    <t>30.7</t>
+  </si>
+  <si>
+    <t>Feature selection process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross validated feature selection </t>
+  </si>
+  <si>
+    <t>16 functional connections</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>Accuracy validation dataset</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>Yahata, N., Morimoto, J., Hashimoto, R., Lisi, G., Shibata, K., Kawakubo, Y., ... &amp; Kawato, M. (2016). A small number of abnormal brain connections predicts adult autism spectrum disorder. Nature communications, 7(1), 1-12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yahata et al., 2016 </t>
+  </si>
+  <si>
+    <t>74 ASD, 107 healthy</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1565,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-m"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1150,8 +1620,29 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1194,6 +1685,18 @@
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1204,10 +1707,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1230,8 +1734,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1448,9 +1962,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1544,7 +2060,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2335,7 +2851,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="23" t="s">
         <v>117</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2681,6 +3197,14 @@
       </c>
       <c r="N31" s="3" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C32" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2739,7 +3263,9 @@
   </sheetPr>
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3013,9 +3539,15 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="L7" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="M7" s="13">
+        <v>6</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>341</v>
+      </c>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
@@ -3037,9 +3569,15 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="L8" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="M8" s="13">
+        <v>7</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>341</v>
+      </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
@@ -21020,19 +21558,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC3"/>
+  <dimension ref="A1:CA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="BF7" sqref="BE7:BF7"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>267</v>
       </c>
@@ -21052,264 +21590,987 @@
         <v>272</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="AM1" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ1" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="AR1" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="AS1" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="AT1" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="AU1" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="AV1" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="AW1" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="AX1" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="AY1" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="AZ1" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="O1" s="19" t="s">
+      <c r="BA1" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="U1" s="19" t="s">
+      <c r="BB1" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="BC1" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="BD1" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="X1" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD1" s="20" t="s">
+      <c r="BE1" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="BF1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="BG1" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="BH1" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="BI1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="BJ1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="BK1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="BL1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="BM1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="BN1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="BO1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="BP1" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="BQ1" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="BR1" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="BS1" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="AS1" s="20" t="s">
+      <c r="BT1" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="AT1" s="20" t="s">
+      <c r="BU1" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="AU1" s="20" t="s">
+      <c r="BV1" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="AV1" s="20" t="s">
+      <c r="BW1" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="AW1" s="20" t="s">
+      <c r="BX1" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="AX1" s="20" t="s">
+      <c r="BY1" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="AY1" s="20" t="s">
+      <c r="BZ1" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="AZ1" s="20" t="s">
+      <c r="CA1" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="BA1" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="BB1" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="BC1" s="20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2018</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3">
+        <v>716</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2018</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="3" t="s">
+      <c r="L3" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3">
+        <v>819.95100000000002</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13">
+        <v>245.98599999999999</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AK4" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E3" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>338</v>
+      <c r="G5" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H5">
+        <v>2015</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="P5">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="AP5" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H6">
+        <v>2017</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="P6">
+        <v>986</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO6" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7">
+        <v>2015</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="8">
+        <v>5</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN7" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO7" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP7" s="24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H8">
+        <v>2015</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="P8">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="8">
+        <v>14</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG8" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI8" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN8" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="AO8" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="AP8" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="P9">
+        <v>181</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="S9">
+        <v>88</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG9" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="AL9" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM9" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mental Health Products.xlsx
+++ b/Mental Health Products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annekleine/Dropbox/Human_AI/Mental_heal/MentalHealth_AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AFE61E-A4F5-8046-B0E9-1E7FC1F036A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A345EE-A411-0E4C-A5E9-AE0D186182AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14300" windowHeight="16280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13880" windowHeight="16360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>Anka K</author>
   </authors>
   <commentList>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{8A334D93-AE1A-614A-AB5D-88791A4E2502}">
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{BEA0A380-500C-BE4C-A1D8-BD2A11368CFE}">
       <text>
         <r>
           <rPr>
@@ -56,11 +56,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>QUADAS-2 criteria</t>
+          <t>See here https://www.bmj.com/content/375/bmj.n2281 and here https://www.probast.org/wp-content/uploads/2020/02/PROBAST_20190515.pdf and here https://www.probast.org/wp-content/uploads/2020/02/aime201901010-m181377.pdf</t>
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{DE7ACCB0-AA16-FE44-AF9C-0F462A715127}">
+    <comment ref="CD2" authorId="0" shapeId="0" xr:uid="{DE7ACCB0-AA16-FE44-AF9C-0F462A715127}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,40 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{64B70843-A1EF-5C4A-BA58-43BA23E2704B}">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{F552E3A2-2445-8F44-9563-9CBE4EC9AFC3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>819,951 (573,965 training; 1782 suicide deaths) (245,986 testing; 764 suicide deaths)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="0" shapeId="0" xr:uid="{64B70843-A1EF-5C4A-BA58-43BA23E2704B}">
       <text>
         <r>
           <rPr>
@@ -126,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{F552E3A2-2445-8F44-9563-9CBE4EC9AFC3}">
+    <comment ref="BD9" authorId="0" shapeId="0" xr:uid="{DDBA8A92-9B19-9D40-88DA-A4BC65E12CCE}">
       <text>
         <r>
           <rPr>
@@ -155,7 +188,311 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>819,951 (573,965 training; 1782 suicide deaths) (245,986 testing; 764 suicide deaths)</t>
+          <t>Yes, nested case control</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI11" authorId="0" shapeId="0" xr:uid="{9C3DDFF6-5E18-E741-AEB4-396D1729E832}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">because outcomes assessed </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM11" authorId="0" shapeId="0" xr:uid="{ADCE7709-A321-B343-A0A4-03D1C52B5FA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>yes because health care professional assessed ASD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN11" authorId="0" shapeId="0" xr:uid="{0576EAE8-CAC2-B34F-90D3-9A242C269D30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">yes because based on DSM </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ11" authorId="0" shapeId="0" xr:uid="{CA50E19E-EA66-A64A-92B9-BB5997804E15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Yes, because MRI independent of ASD assessment </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BU11" authorId="0" shapeId="0" xr:uid="{8ED4DCEF-DECF-004C-8B17-254FEF4D36C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">No, because </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>the number of participants with the outcome relative to the number of candidate predictor parameters was</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> not</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> ≥20 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BZ11" authorId="0" shapeId="0" xr:uid="{06F81320-5922-2F47-9911-79D32B601AF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Yes, because nested case control with qual group size </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CA11" authorId="0" shapeId="0" xr:uid="{5D139308-BF3E-054B-A2B8-FD08417A6349}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">No because </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>classification measures (like sensitivity, specificity, or predictive values) were presented using predicted probability thresholds derived from the data set at hand.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CB11" authorId="0" shapeId="0" xr:uid="{B154A12F-974B-804D-A1D7-E6D6D49D17B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Yes, because cross validation was used </t>
         </r>
       </text>
     </comment>
@@ -164,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="511">
   <si>
     <t>Firm</t>
   </si>
@@ -992,27 +1329,18 @@
     <t>Availability</t>
   </si>
   <si>
-    <t>Primary goal</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Age Range</t>
   </si>
   <si>
-    <t>AI Method</t>
-  </si>
-  <si>
     <t>Validation type</t>
   </si>
   <si>
     <t>Conclusion</t>
   </si>
   <si>
-    <t>Contact Info</t>
-  </si>
-  <si>
     <t>Product info in article</t>
   </si>
   <si>
@@ -1094,15 +1422,9 @@
     <t>Graham, S., Depp, C., Lee, E. E., Nebeker, C., Tu, X., Kim, H. C., &amp; Jeste, D. V. (2019). Artificial intelligence for mental health and mental illnesses: an overview. Current psychiatry reports, 21(11), 1-18</t>
   </si>
   <si>
-    <t>Graham et al., 2019</t>
-  </si>
-  <si>
     <t>Arun, V., Prajwal, V., Krishna, M., Arunkumar, B. V., Padma, S. K., &amp; Shyam, V. (2018, November). A boosted machine learning approach for detection of depression. In 2018 IEEE Symposium Series on Computational Intelligence (SSCI) (pp. 41-47). IEEE.</t>
   </si>
   <si>
-    <t>Arun et al., 2018</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -1127,9 +1449,6 @@
     <t>vanishriarun@sjce.ac.in</t>
   </si>
   <si>
-    <t>Choi et al., 2018</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -1154,48 +1473,6 @@
     <t xml:space="preserve">Year of publication </t>
   </si>
   <si>
-    <t>Sample Size model development</t>
-  </si>
-  <si>
-    <t>Subjects model development</t>
-  </si>
-  <si>
-    <t>Number of folds</t>
-  </si>
-  <si>
-    <t>Domains risk of bias (limitations)</t>
-  </si>
-  <si>
-    <t>Indirectness of patient setting</t>
-  </si>
-  <si>
-    <t>Indirectness of outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inconsistency </t>
-  </si>
-  <si>
-    <t>Imprecision</t>
-  </si>
-  <si>
-    <t>Overall quality of evidence</t>
-  </si>
-  <si>
-    <t>Patient selection</t>
-  </si>
-  <si>
-    <t>Index test</t>
-  </si>
-  <si>
-    <t>Reference standard</t>
-  </si>
-  <si>
-    <t>Flow and timing</t>
-  </si>
-  <si>
-    <t>Data management</t>
-  </si>
-  <si>
     <t>PubMed</t>
   </si>
   <si>
@@ -1211,12 +1488,6 @@
     <t>Kintsugi</t>
   </si>
   <si>
-    <t>Shatte et al., 2019</t>
-  </si>
-  <si>
-    <t>Lueken et al., 2015</t>
-  </si>
-  <si>
     <t>Predict depressive comorbidity in anxiety patients</t>
   </si>
   <si>
@@ -1238,24 +1509,12 @@
     <t>Best algorithm</t>
   </si>
   <si>
-    <t>Controlled confounders</t>
-  </si>
-  <si>
-    <t>Performance confounders controlled</t>
-  </si>
-  <si>
-    <t>Data Source</t>
-  </si>
-  <si>
     <t xml:space="preserve">Germany </t>
   </si>
   <si>
     <t>Multicenter</t>
   </si>
   <si>
-    <t>Anxiety patients</t>
-  </si>
-  <si>
     <t>Unicenter</t>
   </si>
   <si>
@@ -1316,18 +1575,12 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Not decreased</t>
-  </si>
-  <si>
     <t>Ulrike Lueken: Lueken_U@ukw.de</t>
   </si>
   <si>
     <t>Lueken, U., Straube, B., Yang, Y., Hahn, T., Beesdo-Baum, K., Wittchen, H. U., ... &amp; Kircher, T. (2015). Separating depressive comorbidity from panic disorder: a combined functional magnetic resonance imaging and machine learning approach. Journal of affective disorders, 184, 182-192.</t>
   </si>
   <si>
-    <t>Tran &amp; Kavuluru, 2017</t>
-  </si>
-  <si>
     <t>it would make it possible for physicians and other healthcare professionals to make quick assessments, based on a relatively small narrative, that could lead to early hints of a mental disorder</t>
   </si>
   <si>
@@ -1349,9 +1602,6 @@
     <t xml:space="preserve">CNN with output score thresholding </t>
   </si>
   <si>
-    <t>Zhou et al., 2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">Predict depression level or suicide possibility </t>
   </si>
   <si>
@@ -1407,12 +1657,6 @@
   </si>
   <si>
     <t>Comorbidity</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Liu et al., 2015</t>
   </si>
   <si>
     <t>Differentiate anxiety patients from others</t>
@@ -1436,9 +1680,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>Half depression patients, half  general</t>
-  </si>
-  <si>
     <t>MR images</t>
   </si>
   <si>
@@ -1448,12 +1689,6 @@
     <t>18-40</t>
   </si>
   <si>
-    <t xml:space="preserve">Half social anxiety patients, half general </t>
-  </si>
-  <si>
-    <t>Detailed category</t>
-  </si>
-  <si>
     <t>Differentiation healthy and ill</t>
   </si>
   <si>
@@ -1476,9 +1711,6 @@
   </si>
   <si>
     <t>148 features across the default mode network (DMN), visual network (VN), sensory-motor network (SMN), and affective network (AN)</t>
-  </si>
-  <si>
-    <t>Sample size test dataset/ control group</t>
   </si>
   <si>
     <t>SVM</t>
@@ -1515,24 +1747,12 @@
     <t>Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Subjects validation dataset/ control group </t>
-  </si>
-  <si>
-    <t>Validation dataset</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>44 ASD, 44 healthy</t>
-  </si>
-  <si>
     <t>30.7</t>
   </si>
   <si>
-    <t>Feature selection process</t>
-  </si>
-  <si>
     <t xml:space="preserve">cross validated feature selection </t>
   </si>
   <si>
@@ -1545,16 +1765,294 @@
     <t>Accuracy validation dataset</t>
   </si>
   <si>
-    <t>0.62</t>
-  </si>
-  <si>
     <t>Yahata, N., Morimoto, J., Hashimoto, R., Lisi, G., Shibata, K., Kawakubo, Y., ... &amp; Kawato, M. (2016). A small number of abnormal brain connections predicts adult autism spectrum disorder. Nature communications, 7(1), 1-12.</t>
   </si>
   <si>
-    <t xml:space="preserve">Yahata et al., 2016 </t>
-  </si>
-  <si>
-    <t>74 ASD, 107 healthy</t>
+    <t>Domain 1: Participants, A. RISK OF BIAS (low/ high/ unclear)</t>
+  </si>
+  <si>
+    <t>Domain 2: Predictors, A. RISK OF BIAS (low/ high/ unclear)</t>
+  </si>
+  <si>
+    <t>Methodological features</t>
+  </si>
+  <si>
+    <t>GS1_Shatte_2019</t>
+  </si>
+  <si>
+    <t>Lueken_2015</t>
+  </si>
+  <si>
+    <t>Tran_2017</t>
+  </si>
+  <si>
+    <t>Zhou_2015</t>
+  </si>
+  <si>
+    <t>Liu_2015</t>
+  </si>
+  <si>
+    <t>Yahata_2016</t>
+  </si>
+  <si>
+    <t>Arun_2018</t>
+  </si>
+  <si>
+    <t>Choi_2018</t>
+  </si>
+  <si>
+    <t>GS2_Graham_2019</t>
+  </si>
+  <si>
+    <t>Shatte, A. B. R., Hutchinson, D. M., &amp; Teague, S. J. (2019). Machine learning in mental health: A scoping review of methods and applications. Psychological Medicine, 49(9), 1426–1448. https://doi.org/10.1017/S0033291719000151</t>
+  </si>
+  <si>
+    <t>Primary study goal</t>
+  </si>
+  <si>
+    <t>Category - details</t>
+  </si>
+  <si>
+    <t>Sample size validation dataset</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>AUC validation dataset</t>
+  </si>
+  <si>
+    <t>Specificity validation dataset</t>
+  </si>
+  <si>
+    <t>Sensitivity validation dataset</t>
+  </si>
+  <si>
+    <t>Precision validation dataset</t>
+  </si>
+  <si>
+    <t>F! validation dataset</t>
+  </si>
+  <si>
+    <t>external validation</t>
+  </si>
+  <si>
+    <t>External validation</t>
+  </si>
+  <si>
+    <t>Multiple external validation datasets</t>
+  </si>
+  <si>
+    <t>Differentiation healthy and ADS</t>
+  </si>
+  <si>
+    <t>Data Source Training dataset</t>
+  </si>
+  <si>
+    <t>Country training dataset</t>
+  </si>
+  <si>
+    <t>Subjects training dataset: ill</t>
+  </si>
+  <si>
+    <t>Overall sample size training dataset</t>
+  </si>
+  <si>
+    <t>Subjects training dataset: comparison group</t>
+  </si>
+  <si>
+    <t>External validation dataset</t>
+  </si>
+  <si>
+    <t>Subjects validation dataset: ill</t>
+  </si>
+  <si>
+    <t>Subjects validation dataset: comparison group</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>ML Method</t>
+  </si>
+  <si>
+    <t>L1-SCCA; SLR; logistic regression</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Concern that the included participants and setting do not match
+the review question; Domain 1: Participants, B. APPLICABILITY  (low/ high/ unclear)</t>
+  </si>
+  <si>
+    <t>Concern that the definition, assessment or timing of predictors in
+the model do not match the review question; Domain 2: Predictors, B. APPLICABILITY  (low/ high/ unclear)</t>
+  </si>
+  <si>
+    <t>3.6 Was the time interval between predictor assessment and outcome determination appropriate?</t>
+  </si>
+  <si>
+    <t>Domain 3: Outcome, A. RISK OF BIAS (low/ high/ unclear)</t>
+  </si>
+  <si>
+    <t>1.1 Were appropriate data sources used, e.g. cohort, RCT or nested case-control study
+data?</t>
+  </si>
+  <si>
+    <t>1.2 Were all inclusions and exclusions of participants appropriate?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.1 Were predictors defined and assessed in a similar way for all participants?</t>
+  </si>
+  <si>
+    <t>2.2 Were predictor assessments made without knowledge of outcome data? (in validation)</t>
+  </si>
+  <si>
+    <t>2.3 Are all predictors available at the time the model is intended to be used?</t>
+  </si>
+  <si>
+    <t>3.1 Was the outcome determined appropriately?</t>
+  </si>
+  <si>
+    <t>3.2 Was a pre-specified or standard outcome definition used?</t>
+  </si>
+  <si>
+    <t>3.3 Were predictors excluded from the outcome definition?</t>
+  </si>
+  <si>
+    <t>3.4 Was the outcome defined and determined in a similar way for all participants?</t>
+  </si>
+  <si>
+    <t>3.5 Was the outcome determined without knowledge of predictor information?</t>
+  </si>
+  <si>
+    <t>Concern that the outcome, its definition, timing or
+determination do not match the review question; Domain 3: Outcome, B. APPLICABILITY  (low/ high/ unclear)</t>
+  </si>
+  <si>
+    <t>4.1 Were there a reasonable number of participants with the outcome?</t>
+  </si>
+  <si>
+    <t>4.2 Were continuous and categorical predictors handled appropriately?</t>
+  </si>
+  <si>
+    <t>4.3 Were all enrolled participants included in the analysis?</t>
+  </si>
+  <si>
+    <t>4.4 Were participants with missing data handled appropriately?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5 Was selection of predictors based on univariable analysis avoided? </t>
+  </si>
+  <si>
+    <t>4.6 Were complexities in the data (e.g. censoring, competing risks, sampling of controls)
+accounted for appropriately?</t>
+  </si>
+  <si>
+    <t>4.7 Were relevant model performance measures evaluated appropriately?</t>
+  </si>
+  <si>
+    <t>4.8 Were model overfitting and optimism in model performance accounted for?</t>
+  </si>
+  <si>
+    <t>Domain 4: Analysis, A. RISK OF BIAS (low/ high/ unclear)</t>
+  </si>
+  <si>
+    <t>Study quality (PROBAST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study characteristics </t>
+  </si>
+  <si>
+    <t>Contact information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product information </t>
+  </si>
+  <si>
+    <t>Product mentioned (either in text or in affliations, statement of conflicts)</t>
+  </si>
+  <si>
+    <t>Plitt, M., Barnes, K. A., &amp; Martin, A. (2015). Functional connectivity classification of autism identifies highly predictive brain features but falls short of biomarker standards. NeuroImage: Clinical, 7, 359–366. https://doi.org/10.1016/j.nicl.2014.12.013</t>
+  </si>
+  <si>
+    <t>Plitt_2015</t>
+  </si>
+  <si>
+    <t>determined the best methods for performing classification of ASD vs. TD participants using rs-fMRI data</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>57 features</t>
+  </si>
+  <si>
+    <t>L-SVM</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>Positive predictive value</t>
+  </si>
+  <si>
+    <t>Negative predictive value</t>
+  </si>
+  <si>
+    <t>Positive predictive value validation dataset</t>
+  </si>
+  <si>
+    <t>Negative predictive value validation dataset</t>
+  </si>
+  <si>
+    <t>70.63</t>
+  </si>
+  <si>
+    <t>70.59</t>
+  </si>
+  <si>
+    <t>accuracy achieved using simple behavior metrics, the Social Responsiveness Scale (SRS) , far exceeded accuracy achieved with rs-fMRI. Nonetheless, classification techniques applied to rs-fMRI data still had demonstrable utility. These data-driven methods identified aberrant connections in ASD participants, revealing connections within specific networks that were predictive of an ASD diagnosis and correlated with symptom expression</t>
+  </si>
+  <si>
+    <t>This approach may be well suited for predicting the trajectory of the disorder, identifying clinical subgroups on the basis of a functional connectivity phenotype, or identifying individuals who may be more responsive to treatment. Autism is a heterogeneous developmental disorder with a range of symptom expression profiles, and rs-fMRI may have a role in explicating the root of this heterogeneity.</t>
+  </si>
+  <si>
+    <t>mark.plitt@nih.gov</t>
+  </si>
+  <si>
+    <t>Percent female</t>
+  </si>
+  <si>
+    <t>Study type</t>
+  </si>
+  <si>
+    <t>Case control</t>
+  </si>
+  <si>
+    <t>Feature selection procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +2140,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1663,38 +2161,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor rgb="FFB6D7A8"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
   </fills>
@@ -1711,7 +2251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1730,19 +2270,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1964,8 +2520,8 @@
   </sheetPr>
   <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2060,7 +2616,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2851,7 +3407,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="18" t="s">
         <v>117</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -3201,10 +3757,10 @@
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="C32" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3540,13 +4096,13 @@
       <c r="I7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="17" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="M7" s="13">
         <v>6</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -3570,13 +4126,13 @@
       <c r="I8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="M8" s="13">
         <v>7</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -21562,1015 +22118,1658 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CA9"/>
+  <dimension ref="A1:DC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="CC15" sqref="CC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="BD1" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="33"/>
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="33"/>
+      <c r="BY1" s="33"/>
+      <c r="BZ1" s="33"/>
+      <c r="CA1" s="33"/>
+      <c r="CB1" s="33"/>
+      <c r="CC1" s="33"/>
+      <c r="CD1" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+      <c r="CH1" s="37"/>
+      <c r="CI1" s="37"/>
+      <c r="CJ1" s="37"/>
+      <c r="CK1" s="37"/>
+      <c r="CL1" s="37"/>
+      <c r="CM1" s="37"/>
+      <c r="CN1" s="37"/>
+      <c r="CO1" s="37"/>
+      <c r="CP1" s="37"/>
+      <c r="CQ1" s="37"/>
+      <c r="CR1" s="37"/>
+      <c r="CS1" s="37"/>
+      <c r="CT1" s="37"/>
+      <c r="CU1" s="37"/>
+      <c r="CV1" s="37"/>
+      <c r="CW1" s="37"/>
+      <c r="CX1" s="37"/>
+      <c r="CY1" s="37"/>
+      <c r="CZ1" s="37"/>
+      <c r="DA1" s="37"/>
+      <c r="DB1" s="37"/>
+      <c r="DC1" s="37"/>
+    </row>
+    <row r="2" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C2" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D2" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E2" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F2" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="G2" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="K2" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L2" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="V2" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="W2" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="X2" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z2" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA2" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB2" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC2" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD2" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE2" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF2" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG2" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH2" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI2" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ2" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK2" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL2" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM2" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="AN2" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO2" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="AP2" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="AQ2" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="AR2" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="AS2" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="AT2" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="AU2" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="AV2" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="AW2" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="AX2" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="AY2" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="AZ2" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="BA2" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="BB2" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="BE2" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="BF2" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="BG2" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="BH2" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="BI2" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="BJ2" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="BK2" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="BL2" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="BM2" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="BN2" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="BO2" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="BP2" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="BQ2" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="BR2" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="BS2" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="BT2" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="BU2" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="BV2" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="BW2" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="BX2" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="BY2" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="BZ2" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="CA2" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="CB2" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="CC2" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="CD2" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="CE2" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="CF2" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG2" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="CH2" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="CI2" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="CJ2" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="CK2" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="CL2" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="AE1" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG1" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH1" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="AJ1" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="AK1" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="AM1" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="AN1" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="AO1" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="AP1" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="AQ1" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="AR1" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="AS1" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="AT1" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="AU1" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="AV1" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="AW1" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="AX1" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="AY1" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="AZ1" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="BA1" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="BB1" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="BC1" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="BD1" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="BE1" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="BF1" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="BG1" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="BH1" s="20" t="s">
+      <c r="CM2" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="BI1" s="20" t="s">
+      <c r="CN2" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="BJ1" s="20" t="s">
+      <c r="CO2" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="BK1" s="20" t="s">
+      <c r="CP2" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="BL1" s="20" t="s">
+      <c r="CQ2" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="BM1" s="20" t="s">
+      <c r="CR2" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BN1" s="20" t="s">
+      <c r="CS2" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="BO1" s="20" t="s">
+      <c r="CT2" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="BP1" s="20" t="s">
+      <c r="CU2" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="BQ1" s="20" t="s">
+      <c r="CV2" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="BR1" s="20" t="s">
+      <c r="CW2" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="BS1" s="20" t="s">
+      <c r="CX2" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="BT1" s="20" t="s">
+      <c r="CY2" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="BU1" s="20" t="s">
+      <c r="CZ2" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="BV1" s="20" t="s">
+      <c r="DA2" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="BW1" s="20" t="s">
+      <c r="DB2" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="BX1" s="20" t="s">
+      <c r="DC2" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="BY1" s="20" t="s">
+    </row>
+    <row r="3" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="BZ1" s="20" t="s">
+      <c r="C3" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="CA1" s="20" t="s">
+      <c r="E3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="2" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2018</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="3">
-        <v>716</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC2" s="13">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E3" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="G3" s="13" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="H3" s="13">
         <v>2018</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>410</v>
+        <v>35</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="M3" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>24</v>
+      <c r="O3" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="P3" s="3">
-        <v>819.95100000000002</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13">
-        <v>245.98599999999999</v>
-      </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
+        <v>716</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>339</v>
+      </c>
       <c r="V3" s="13"/>
-      <c r="W3" s="3" t="s">
-        <v>321</v>
+      <c r="W3" s="13" t="s">
+        <v>341</v>
       </c>
       <c r="X3" s="13"/>
       <c r="Y3" s="3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="Z3" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="AA3" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="3" t="s">
-        <v>376</v>
+      <c r="AC3" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
+      <c r="AF3" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>346</v>
+      </c>
       <c r="AI3" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="AJ3" s="13"/>
+        <v>305</v>
+      </c>
+      <c r="AJ3" s="13" t="s">
+        <v>305</v>
+      </c>
       <c r="AK3" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="3" t="s">
-        <v>324</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="AL3" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM3" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN3" s="13"/>
       <c r="AO3" s="13"/>
-      <c r="AP3" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AK4" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="AP3" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR3" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC3" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2018</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="P4" s="3">
+        <v>819.95100000000002</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13">
+        <v>245.98599999999999</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ4" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR4" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC4" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="H5">
+    </row>
+    <row r="5" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP5" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+    </row>
+    <row r="6" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H6">
         <v>2015</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="P5">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="AE5" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="AF5" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="AG5" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="AM5" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="AP5" s="24" t="s">
+      <c r="I6" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="H6">
-        <v>2017</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>412</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>161</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>51</v>
+        <v>358</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>386</v>
+        <v>305</v>
       </c>
       <c r="P6">
-        <v>986</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>447</v>
+        <v>328</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>310</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="S6" s="8"/>
       <c r="T6" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>400</v>
+        <v>342</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="AE6" s="8"/>
       <c r="AF6" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH6" s="8"/>
+        <v>370</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>351</v>
+      </c>
       <c r="AI6" s="8" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="AK6" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AM6" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AO6" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="25" t="s">
-        <v>416</v>
+        <v>352</v>
+      </c>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="BB6" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC6" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>386</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G7" s="26"/>
+        <v>313</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="H7">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>393</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>35</v>
+        <v>455</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>161</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>361</v>
+        <v>51</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>51</v>
+        <v>358</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="P7">
+        <v>986</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="BA7" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="BB7" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="8">
-        <v>5</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="AE7" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AF7" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="AH7" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AI7" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AM7" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN7" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="AO7" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="AP7" s="24" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="8" t="s">
-        <v>418</v>
+      <c r="D8" s="20" t="s">
+        <v>385</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>409</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G8" s="21"/>
       <c r="H8">
         <v>2015</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>415</v>
+        <v>35</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>361</v>
+        <v>51</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ8" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA8" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB8" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC8" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="P8">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="8">
-        <v>14</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y8" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB8" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="AE8" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="AF8" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="AG8" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH8" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI8" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="AJ8" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK8" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL8" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AM8" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN8" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="AO8" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="AP8" s="27" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>457</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>409</v>
+        <v>380</v>
+      </c>
+      <c r="H9">
+        <v>2015</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>161</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>444</v>
+        <v>358</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="P9">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8">
+        <v>14</v>
+      </c>
+      <c r="AG9" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL9" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM9" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR9" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="BA9" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="BB9" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC9" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="BD9" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21"/>
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21"/>
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21"/>
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21"/>
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+    </row>
+    <row r="10" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H10">
+        <v>2016</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="P10">
         <v>181</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q10" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="S10" s="22"/>
+      <c r="T10" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA10" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF10">
+        <v>88</v>
+      </c>
+      <c r="AG10" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL10" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="AM10" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ10" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="AR10" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="BE10" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="BF10" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="BG10" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="BH10" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="BI10" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="BJ10" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="BK10" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="BL10" s="21" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="R9" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="S9">
-        <v>88</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="X9" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="Y9" s="8" t="s">
+      <c r="H11">
+        <v>2015</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="P11">
+        <v>296</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="S11" s="22"/>
+      <c r="T11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="W11" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="Z9" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA9" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB9" s="8" t="s">
+      <c r="X11" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA11" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG11" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="AI11" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="AC9" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD9" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="AE9" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="AF9" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG9" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH9" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI9" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="AJ9" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK9" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="AL9" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AM9" s="8" t="s">
-        <v>310</v>
+      <c r="AJ11" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN11" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="AO11" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="AP11" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AW11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AX11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AZ11" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="BA11" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="BB11" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC11" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="BE11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BF11" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="BG11" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="BH11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BI11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BJ11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BK11" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="BL11" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="BM11" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="BN11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BO11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BP11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BQ11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BR11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BS11" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="BT11" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="BU11" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="BV11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BW11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BX11" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="BY11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BZ11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="CA11" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="CB11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="CC11" s="8" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:BA1"/>
+    <mergeCell ref="BD1:CC1"/>
+    <mergeCell ref="CD1:DC1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="BC11" r:id="rId1" xr:uid="{2E588990-E6DC-244F-8579-F44F45514AD3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Mental Health Products.xlsx
+++ b/Mental Health Products.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annekleine/Dropbox/Human_AI/Mental_heal/MentalHealth_AI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne/Dropbox/Human_AI/Mental_heal/MentalHealth_AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A345EE-A411-0E4C-A5E9-AE0D186182AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43123FF8-80F0-FB4A-98AF-09DEA865612E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13880" windowHeight="16360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36400" yWindow="-780" windowWidth="33660" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Search terms" sheetId="2" r:id="rId2"/>
     <sheet name="Codesheet" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,9 +35,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Anka K</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{BEA0A380-500C-BE4C-A1D8-BD2A11368CFE}">
+    <comment ref="BO1" authorId="0" shapeId="0" xr:uid="{BEA0A380-500C-BE4C-A1D8-BD2A11368CFE}">
       <text>
         <r>
           <rPr>
@@ -56,11 +67,64 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>See here https://www.bmj.com/content/375/bmj.n2281 and here https://www.probast.org/wp-content/uploads/2020/02/PROBAST_20190515.pdf and here https://www.probast.org/wp-content/uploads/2020/02/aime201901010-m181377.pdf</t>
+          <t xml:space="preserve">https://www.probast.org/wp-content/uploads/2020/02/PROBAST_20190515.pdf
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://www.probast.org/wp-content/uploads/2020/02/aime201901010-m181377.pdf</t>
         </r>
       </text>
     </comment>
-    <comment ref="CD2" authorId="0" shapeId="0" xr:uid="{DE7ACCB0-AA16-FE44-AF9C-0F462A715127}">
+    <comment ref="BT2" authorId="0" shapeId="0" xr:uid="{BB617E0A-B4F5-4E46-A719-6CD4BBEA6A31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Were they unaware of the outcome when they measured the predictors? </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CP2" authorId="0" shapeId="0" xr:uid="{DE7ACCB0-AA16-FE44-AF9C-0F462A715127}">
       <text>
         <r>
           <rPr>
@@ -93,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{F552E3A2-2445-8F44-9563-9CBE4EC9AFC3}">
+    <comment ref="S5" authorId="0" shapeId="0" xr:uid="{F552E3A2-2445-8F44-9563-9CBE4EC9AFC3}">
       <text>
         <r>
           <rPr>
@@ -126,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T4" authorId="0" shapeId="0" xr:uid="{64B70843-A1EF-5C4A-BA58-43BA23E2704B}">
+    <comment ref="X5" authorId="0" shapeId="0" xr:uid="{64B70843-A1EF-5C4A-BA58-43BA23E2704B}">
       <text>
         <r>
           <rPr>
@@ -159,7 +223,898 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD9" authorId="0" shapeId="0" xr:uid="{DDBA8A92-9B19-9D40-88DA-A4BC65E12CCE}">
+    <comment ref="BS5" authorId="1" shapeId="0" xr:uid="{7521B860-91A7-F44F-9813-E30EC1B33BAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because text data - not sure whether always assessed in same way</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CH5" authorId="1" shapeId="0" xr:uid="{84066DB4-A3F3-6140-B5B3-B7BEEC8401C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No because different number in analysis and in description of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CL5" authorId="0" shapeId="0" xr:uid="{881E229B-A903-D94F-9C6A-28DA923B9C0E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">no because basic number of trues very low </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP6" authorId="1" shapeId="0" xr:uid="{97ACDE4A-67C2-134C-B9D8-9D1431FD5B5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because none mentioned</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS6" authorId="1" shapeId="0" xr:uid="{F42F6902-7FC4-E54B-9EB1-40057DCD07E2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because text data - not sure whether always assessed in same way</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT6" authorId="1" shapeId="0" xr:uid="{11E7F086-B7C2-134B-B929-190A912FC5F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No, because predictor and outcome assessed together</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BX6" authorId="1" shapeId="0" xr:uid="{971F1826-117D-E344-9FF5-5C5A63C455B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Unclear because judged based on text data by clinician </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC6" authorId="1" shapeId="0" xr:uid="{4AC6FF4E-F109-F94F-96F9-B70007A65193}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because timing unknown</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CE6" authorId="1" shapeId="0" xr:uid="{77EFE99E-85D2-E349-A9EB-FF7CFB18D084}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">high because no DSM criteri applied to judge suicidality </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP7" authorId="1" shapeId="0" xr:uid="{7D3B5191-CABB-9D43-8357-9ED19253CBA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because none mentioned</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS7" authorId="1" shapeId="0" xr:uid="{729A01C4-FB8D-C24C-AEEE-11B97271FB65}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because text data - not sure whether always assessed in same way</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT7" authorId="1" shapeId="0" xr:uid="{3919CB1A-26BE-1246-963C-66DC0AA83F3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No, because predictor and outcome assessed together</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BX7" authorId="1" shapeId="0" xr:uid="{1C143D43-5BF4-C04D-8B9D-A0AB701AC9DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Unclear because judged based on text data by clinician </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC7" authorId="1" shapeId="0" xr:uid="{FE66939C-E0FC-5048-B354-CA6908512001}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because timing unknown</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CE7" authorId="1" shapeId="0" xr:uid="{B4872E5E-68E5-2440-B7BF-AE14CA4D6571}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">high because no DSM criteri applied to judge suicidality </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS8" authorId="1" shapeId="0" xr:uid="{ABCD762C-2574-9444-8C70-ED471283DAF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because text data - not sure whether always assessed in same way</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BY8" authorId="1" shapeId="0" xr:uid="{30723318-E3FB-634A-A7F0-32F85BFE93BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because not evident which basis was used for annotation for gold standard</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO11" authorId="1" shapeId="0" xr:uid="{F2F1E87B-5C74-264F-83C4-53B5D451AEF4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>no, because no nested case control</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT11" authorId="1" shapeId="0" xr:uid="{EDC40AEC-35A8-AC4D-9459-7DCED29A254C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>yes, because fmri was conducted separate from diagnosis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CF11" authorId="1" shapeId="0" xr:uid="{D5442741-879D-9848-B63D-9C843ABE7867}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No, because &lt; 20 per predictor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BX12" authorId="1" shapeId="0" xr:uid="{3817C032-45EB-5A49-909A-C86C1A24F24E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because use of dsm 5 not mentioned</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BZ12" authorId="1" shapeId="0" xr:uid="{4FA5CF93-E89A-3948-A3E6-CB2F88D4E2D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because predictor content not entirely clear</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC12" authorId="1" shapeId="0" xr:uid="{D766C10E-FE74-6941-974F-B7504FFB3E06}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because timing unknown</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CE12" authorId="1" shapeId="0" xr:uid="{4F6437A4-637E-BB43-9B0C-7229313CCCC6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">high because no DSM criteri applied to judge suicidality </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CK12" authorId="1" shapeId="0" xr:uid="{891B2BB2-7AA2-034D-BF03-36B281832FE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unequal group sices; not clear how this was accounted for</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP13" authorId="1" shapeId="0" xr:uid="{145241ED-F8D8-9C4C-871A-13EB563C3DE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>exclusion criteria not mentiioned</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT13" authorId="1" shapeId="0" xr:uid="{30BFB680-F433-C045-A7CE-4CC4F467C201}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because not known whether professionals knew depression status when assessing multi modal info</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO14" authorId="0" shapeId="0" xr:uid="{DDBA8A92-9B19-9D40-88DA-A4BC65E12CCE}">
       <text>
         <r>
           <rPr>
@@ -192,7 +1147,106 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI11" authorId="0" shapeId="0" xr:uid="{9C3DDFF6-5E18-E741-AEB4-396D1729E832}">
+    <comment ref="CF14" authorId="1" shapeId="0" xr:uid="{79471F47-F66A-1349-A654-00A8BCA3AC2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>very small sample size (20)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CG15" authorId="1" shapeId="0" xr:uid="{D88ACDFA-CE4A-6A45-8EF7-CDABD57EFC9E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The fifth column contains age value, the sixth column contains either 1 ( ¼ male) or 0 ( ¼ female), the seventh column contains either 1 ( ¼ eye open) or 0 ( ¼ eye closed) and the last three columns contain status of the three medications, where each column contains either 1 ( ¼ with medication) or 0 ( ¼ without medication)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CK15" authorId="1" shapeId="0" xr:uid="{3610479C-BDD6-7A42-806B-E202C0663F60}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This unbalanced ASD/TD composition among the three sites was taken care of by a machine-learning algorithm as explained below</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT16" authorId="0" shapeId="0" xr:uid="{9C3DDFF6-5E18-E741-AEB4-396D1729E832}">
       <text>
         <r>
           <rPr>
@@ -221,11 +1275,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">because outcomes assessed </t>
+          <t>because outcomes assessed separatrely</t>
         </r>
       </text>
     </comment>
-    <comment ref="BM11" authorId="0" shapeId="0" xr:uid="{ADCE7709-A321-B343-A0A4-03D1C52B5FA1}">
+    <comment ref="BX16" authorId="0" shapeId="0" xr:uid="{ADCE7709-A321-B343-A0A4-03D1C52B5FA1}">
       <text>
         <r>
           <rPr>
@@ -258,7 +1312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN11" authorId="0" shapeId="0" xr:uid="{0576EAE8-CAC2-B34F-90D3-9A242C269D30}">
+    <comment ref="BY16" authorId="0" shapeId="0" xr:uid="{0576EAE8-CAC2-B34F-90D3-9A242C269D30}">
       <text>
         <r>
           <rPr>
@@ -291,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ11" authorId="0" shapeId="0" xr:uid="{CA50E19E-EA66-A64A-92B9-BB5997804E15}">
+    <comment ref="CB16" authorId="0" shapeId="0" xr:uid="{CA50E19E-EA66-A64A-92B9-BB5997804E15}">
       <text>
         <r>
           <rPr>
@@ -324,7 +1378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU11" authorId="0" shapeId="0" xr:uid="{8ED4DCEF-DECF-004C-8B17-254FEF4D36C1}">
+    <comment ref="CF16" authorId="0" shapeId="0" xr:uid="{8ED4DCEF-DECF-004C-8B17-254FEF4D36C1}">
       <text>
         <r>
           <rPr>
@@ -361,33 +1415,12 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>the number of participants with the outcome relative to the number of candidate predictor parameters was</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> not</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> ≥20 </t>
+          <t xml:space="preserve">the number of participants with the outcome relative to the number of candidate predictor parameters was not ≥20 </t>
         </r>
       </text>
     </comment>
-    <comment ref="BZ11" authorId="0" shapeId="0" xr:uid="{06F81320-5922-2F47-9911-79D32B601AF3}">
+    <comment ref="CK16" authorId="0" shapeId="0" xr:uid="{06F81320-5922-2F47-9911-79D32B601AF3}">
       <text>
         <r>
           <rPr>
@@ -420,7 +1453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA11" authorId="0" shapeId="0" xr:uid="{5D139308-BF3E-054B-A2B8-FD08417A6349}">
+    <comment ref="CL16" authorId="0" shapeId="0" xr:uid="{5D139308-BF3E-054B-A2B8-FD08417A6349}">
       <text>
         <r>
           <rPr>
@@ -457,13 +1490,12 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>classification measures (like sensitivity, specificity, or predictive values) were presented using predicted probability thresholds derived from the data set at hand.</t>
         </r>
       </text>
     </comment>
-    <comment ref="CB11" authorId="0" shapeId="0" xr:uid="{B154A12F-974B-804D-A1D7-E6D6D49D17B9}">
+    <comment ref="CM16" authorId="0" shapeId="0" xr:uid="{B154A12F-974B-804D-A1D7-E6D6D49D17B9}">
       <text>
         <r>
           <rPr>
@@ -496,12 +1528,144 @@
         </r>
       </text>
     </comment>
+    <comment ref="CC17" authorId="1" shapeId="0" xr:uid="{1ACA01DD-2407-7043-B48F-07D87670AFB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unclear because not sure when diagnosis was made</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CF17" authorId="1" shapeId="0" xr:uid="{154E1F25-E23F-2845-A79B-1CDC5165FF1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>no because very small sample size</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CK17" authorId="0" shapeId="0" xr:uid="{2A315176-3605-F44E-8F5F-B01D4C827D04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Yes, because nested case control with qual group size </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CK18" authorId="0" shapeId="0" xr:uid="{3881A0B3-B443-C042-9F3B-62C230EFEF48}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anka K:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Yes, because nested case control with qual group size </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="805">
   <si>
     <t>Firm</t>
   </si>
@@ -1317,27 +2481,12 @@
     <t>Review</t>
   </si>
   <si>
-    <t>Review short</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original study </t>
-  </si>
-  <si>
-    <t>Original study short</t>
-  </si>
-  <si>
     <t>Availability</t>
   </si>
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Age Range</t>
-  </si>
-  <si>
-    <t>Validation type</t>
-  </si>
-  <si>
     <t>Conclusion</t>
   </si>
   <si>
@@ -1422,57 +2571,21 @@
     <t>Graham, S., Depp, C., Lee, E. E., Nebeker, C., Tu, X., Kim, H. C., &amp; Jeste, D. V. (2019). Artificial intelligence for mental health and mental illnesses: an overview. Current psychiatry reports, 21(11), 1-18</t>
   </si>
   <si>
-    <t>Arun, V., Prajwal, V., Krishna, M., Arunkumar, B. V., Padma, S. K., &amp; Shyam, V. (2018, November). A boosted machine learning approach for detection of depression. In 2018 IEEE Symposium Series on Computational Intelligence (SSCI) (pp. 41-47). IEEE.</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Predict depression (Euro-depression inventory) from hospital EHR data</t>
-  </si>
-  <si>
-    <t>Prediction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-67 years </t>
-  </si>
-  <si>
-    <t>Depression, physical frailty, pulmonary function, BMI, LDL</t>
-  </si>
-  <si>
-    <t>cross validation</t>
-  </si>
-  <si>
-    <t>Clinical measures can be used to distinguish whether someone has depression.</t>
-  </si>
-  <si>
-    <t>vanishriarun@sjce.ac.in</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>Predict probability of suicide death using health insurance records</t>
   </si>
   <si>
-    <t>14+</t>
-  </si>
-  <si>
-    <t>Baseline sociodemographic, ICD-10 coded medical conditions</t>
-  </si>
-  <si>
-    <t>cross validation, in sample test</t>
-  </si>
-  <si>
     <t>Male sex, older age, lower income, medical aid insurance, &amp; disability were linked with suicide deaths at 10-year follow-up.</t>
   </si>
   <si>
     <t>Correspondence to: Department of Medical Engineering Yonsei University College of Medicine, CPO Box 8044, Seoul, Republic of Korea.E-mail address: kdw@yuhs.ac (D.W. Kim).</t>
   </si>
   <si>
-    <t xml:space="preserve">Year of publication </t>
-  </si>
-  <si>
     <t>PubMed</t>
   </si>
   <si>
@@ -1491,24 +2604,12 @@
     <t>Predict depressive comorbidity in anxiety patients</t>
   </si>
   <si>
-    <t xml:space="preserve">leave one out cross validation </t>
-  </si>
-  <si>
     <t>18-65</t>
   </si>
   <si>
-    <t>Mean age</t>
-  </si>
-  <si>
     <t>36.7</t>
   </si>
   <si>
-    <t xml:space="preserve">whole-brain beta images </t>
-  </si>
-  <si>
-    <t>Best algorithm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Germany </t>
   </si>
   <si>
@@ -1518,27 +2619,9 @@
     <t>Unicenter</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Data modality</t>
-  </si>
-  <si>
-    <t>Health records</t>
-  </si>
-  <si>
-    <t>Data type</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
-    <t>Supervised ML</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -1548,30 +2631,9 @@
     <t>Sensitivity</t>
   </si>
   <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>XGBoost</t>
-  </si>
-  <si>
     <t>AUC</t>
   </si>
   <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>Cox Regression</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -1584,69 +2646,33 @@
     <t>it would make it possible for physicians and other healthcare professionals to make quick assessments, based on a relatively small narrative, that could lead to early hints of a mental disorder</t>
   </si>
   <si>
+    <t>Unclear</t>
+  </si>
+  <si>
     <t>Patients</t>
   </si>
   <si>
-    <t xml:space="preserve">Health records </t>
-  </si>
-  <si>
-    <t>Text notes</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
-    <t>63.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNN with output score thresholding </t>
-  </si>
-  <si>
     <t xml:space="preserve">Predict depression level or suicide possibility </t>
   </si>
   <si>
-    <t>Multimodal</t>
-  </si>
-  <si>
-    <t>Details data type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Head movement, heart rate, eye blink, pupillary analysis, facial expression, user interaction tracking, content tracking of tweets </t>
   </si>
   <si>
     <t xml:space="preserve">Multimodal </t>
   </si>
   <si>
-    <t xml:space="preserve">Pupil radius, head movement rate, eye blinking rate, facial expression, heart rate, textual tweets sentiment, image sentiment, mouse moving distance, keystroke rate, mouse click rate, mouse wheel slide </t>
-  </si>
-  <si>
-    <t>Ensemble tree</t>
-  </si>
-  <si>
-    <t>Unsupervised ML</t>
-  </si>
-  <si>
-    <t>Logistic regression</t>
-  </si>
-  <si>
     <t>Precision</t>
   </si>
   <si>
-    <t>0.815</t>
-  </si>
-  <si>
-    <t>0.710</t>
-  </si>
-  <si>
     <t>Using noncontact multimodal signals, user interaction and content analysis, our system is able to infer the user’s current mental state</t>
   </si>
   <si>
     <t>May help clinician to evaluate patients' mood states</t>
   </si>
   <si>
-    <t xml:space="preserve">Publication status </t>
-  </si>
-  <si>
     <t>davidchouzdw@gmail.com</t>
   </si>
   <si>
@@ -1660,9 +2686,6 @@
   </si>
   <si>
     <t>Differentiate anxiety patients from others</t>
-  </si>
-  <si>
-    <t>Social anxiety disorder</t>
   </si>
   <si>
     <t>Zhou D, Luo J, Silenzio V, et al. Tackling Mental Health by Integrating Unobtrusive Multimodal
@@ -1680,9 +2703,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>MR images</t>
-  </si>
-  <si>
     <t>Functional images were performed by a single-shot, gradientrecalled echo-planar imaging (EPI) sequence</t>
   </si>
   <si>
@@ -1701,25 +2721,7 @@
     <t>Detection comorbidity</t>
   </si>
   <si>
-    <t>Predict suicidality</t>
-  </si>
-  <si>
-    <t>Detection depression</t>
-  </si>
-  <si>
-    <t>Selected features</t>
-  </si>
-  <si>
-    <t>148 features across the default mode network (DMN), visual network (VN), sensory-motor network (SMN), and affective network (AN)</t>
-  </si>
-  <si>
     <t>SVM</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.80</t>
   </si>
   <si>
     <t xml:space="preserve">Brain activity (MRI data) is a useful tool to differentiate individuals suffering from social anxiety disorder from healthy individuals </t>
@@ -1732,18 +2734,9 @@
 clinical diagnosis of SAD</t>
   </si>
   <si>
-    <t xml:space="preserve">Suggested practical benefit </t>
-  </si>
-  <si>
     <t>H. Chen: chenhf@uestc.edu.cn</t>
   </si>
   <si>
-    <t>ADS</t>
-  </si>
-  <si>
-    <t>Identify ADS patients</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -1753,18 +2746,6 @@
     <t>30.7</t>
   </si>
   <si>
-    <t xml:space="preserve">cross validated feature selection </t>
-  </si>
-  <si>
-    <t>16 functional connections</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>Accuracy validation dataset</t>
-  </si>
-  <si>
     <t>Yahata, N., Morimoto, J., Hashimoto, R., Lisi, G., Shibata, K., Kawakubo, Y., ... &amp; Kawato, M. (2016). A small number of abnormal brain connections predicts adult autism spectrum disorder. Nature communications, 7(1), 1-12.</t>
   </si>
   <si>
@@ -1774,9 +2755,6 @@
     <t>Domain 2: Predictors, A. RISK OF BIAS (low/ high/ unclear)</t>
   </si>
   <si>
-    <t>Methodological features</t>
-  </si>
-  <si>
     <t>GS1_Shatte_2019</t>
   </si>
   <si>
@@ -1795,9 +2773,6 @@
     <t>Yahata_2016</t>
   </si>
   <si>
-    <t>Arun_2018</t>
-  </si>
-  <si>
     <t>Choi_2018</t>
   </si>
   <si>
@@ -1807,114 +2782,30 @@
     <t>Shatte, A. B. R., Hutchinson, D. M., &amp; Teague, S. J. (2019). Machine learning in mental health: A scoping review of methods and applications. Psychological Medicine, 49(9), 1426–1448. https://doi.org/10.1017/S0033291719000151</t>
   </si>
   <si>
-    <t>Primary study goal</t>
-  </si>
-  <si>
-    <t>Category - details</t>
-  </si>
-  <si>
-    <t>Sample size validation dataset</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>AUC validation dataset</t>
-  </si>
-  <si>
-    <t>Specificity validation dataset</t>
-  </si>
-  <si>
-    <t>Sensitivity validation dataset</t>
-  </si>
-  <si>
-    <t>Precision validation dataset</t>
-  </si>
-  <si>
-    <t>F! validation dataset</t>
-  </si>
-  <si>
-    <t>external validation</t>
-  </si>
-  <si>
-    <t>External validation</t>
-  </si>
-  <si>
-    <t>Multiple external validation datasets</t>
-  </si>
-  <si>
     <t>Differentiation healthy and ADS</t>
   </si>
   <si>
-    <t>Data Source Training dataset</t>
-  </si>
-  <si>
-    <t>Country training dataset</t>
-  </si>
-  <si>
-    <t>Subjects training dataset: ill</t>
-  </si>
-  <si>
-    <t>Overall sample size training dataset</t>
-  </si>
-  <si>
-    <t>Subjects training dataset: comparison group</t>
-  </si>
-  <si>
-    <t>External validation dataset</t>
-  </si>
-  <si>
-    <t>Subjects validation dataset: ill</t>
-  </si>
-  <si>
-    <t>Subjects validation dataset: comparison group</t>
-  </si>
-  <si>
     <t>Images</t>
   </si>
   <si>
-    <t>ML Method</t>
-  </si>
-  <si>
-    <t>L1-SCCA; SLR; logistic regression</t>
-  </si>
-  <si>
     <t>Multiple</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>Concern that the included participants and setting do not match
-the review question; Domain 1: Participants, B. APPLICABILITY  (low/ high/ unclear)</t>
-  </si>
-  <si>
-    <t>Concern that the definition, assessment or timing of predictors in
-the model do not match the review question; Domain 2: Predictors, B. APPLICABILITY  (low/ high/ unclear)</t>
-  </si>
-  <si>
     <t>3.6 Was the time interval between predictor assessment and outcome determination appropriate?</t>
   </si>
   <si>
     <t>Domain 3: Outcome, A. RISK OF BIAS (low/ high/ unclear)</t>
   </si>
   <si>
-    <t>1.1 Were appropriate data sources used, e.g. cohort, RCT or nested case-control study
-data?</t>
-  </si>
-  <si>
     <t>1.2 Were all inclusions and exclusions of participants appropriate?</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.1 Were predictors defined and assessed in a similar way for all participants?</t>
   </si>
   <si>
-    <t>2.2 Were predictor assessments made without knowledge of outcome data? (in validation)</t>
-  </si>
-  <si>
     <t>2.3 Are all predictors available at the time the model is intended to be used?</t>
   </si>
   <si>
@@ -1933,10 +2824,6 @@
     <t>3.5 Was the outcome determined without knowledge of predictor information?</t>
   </si>
   <si>
-    <t>Concern that the outcome, its definition, timing or
-determination do not match the review question; Domain 3: Outcome, B. APPLICABILITY  (low/ high/ unclear)</t>
-  </si>
-  <si>
     <t>4.1 Were there a reasonable number of participants with the outcome?</t>
   </si>
   <si>
@@ -1952,10 +2839,6 @@
     <t xml:space="preserve">4.5 Was selection of predictors based on univariable analysis avoided? </t>
   </si>
   <si>
-    <t>4.6 Were complexities in the data (e.g. censoring, competing risks, sampling of controls)
-accounted for appropriately?</t>
-  </si>
-  <si>
     <t>4.7 Were relevant model performance measures evaluated appropriately?</t>
   </si>
   <si>
@@ -1971,15 +2854,9 @@
     <t xml:space="preserve">Study characteristics </t>
   </si>
   <si>
-    <t>Contact information</t>
-  </si>
-  <si>
     <t xml:space="preserve">Product information </t>
   </si>
   <si>
-    <t>Product mentioned (either in text or in affliations, statement of conflicts)</t>
-  </si>
-  <si>
     <t>Plitt, M., Barnes, K. A., &amp; Martin, A. (2015). Functional connectivity classification of autism identifies highly predictive brain features but falls short of biomarker standards. NeuroImage: Clinical, 7, 359–366. https://doi.org/10.1016/j.nicl.2014.12.013</t>
   </si>
   <si>
@@ -1995,36 +2872,9 @@
     <t>18.3</t>
   </si>
   <si>
-    <t>57 features</t>
-  </si>
-  <si>
     <t>L-SVM</t>
   </si>
   <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>Positive predictive value</t>
-  </si>
-  <si>
-    <t>Negative predictive value</t>
-  </si>
-  <si>
-    <t>Positive predictive value validation dataset</t>
-  </si>
-  <si>
-    <t>Negative predictive value validation dataset</t>
-  </si>
-  <si>
-    <t>70.63</t>
-  </si>
-  <si>
-    <t>70.59</t>
-  </si>
-  <si>
     <t>accuracy achieved using simple behavior metrics, the Social Responsiveness Scale (SRS) , far exceeded accuracy achieved with rs-fMRI. Nonetheless, classification techniques applied to rs-fMRI data still had demonstrable utility. These data-driven methods identified aberrant connections in ASD participants, revealing connections within specific networks that were predictive of an ASD diagnosis and correlated with symptom expression</t>
   </si>
   <si>
@@ -2034,25 +2884,1228 @@
     <t>mark.plitt@nih.gov</t>
   </si>
   <si>
-    <t>Percent female</t>
-  </si>
-  <si>
-    <t>Study type</t>
-  </si>
-  <si>
-    <t>Case control</t>
-  </si>
-  <si>
-    <t>Feature selection procedure</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
-    <t>NI</t>
-  </si>
-  <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>Predict 10 year suicidality</t>
+  </si>
+  <si>
+    <t>&gt; 14</t>
+  </si>
+  <si>
+    <t>Demographic and medical record</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suicide death prevention might be enhanced
+by considering basic information from general population, collected by
+the NHIS. </t>
+  </si>
+  <si>
+    <t>Concern that the outcome, its definition, timing or determination do not match the review question; Domain 3: Outcome, B. APPLICABILITY  (low/ high/ unclear)</t>
+  </si>
+  <si>
+    <t>4.6 Were complexities in the data (e.g. censoring, competing risks, sampling of controls) accounted for appropriately?</t>
+  </si>
+  <si>
+    <t>Concern that the definition, assessment or timing of predictors in the model do not match the review question; Domain 2: Predictors, B. APPLICABILITY  (low/ high/ unclear)</t>
+  </si>
+  <si>
+    <t>Concern that the included participants and setting do not match the review question; Domain 1: Participants, B. APPLICABILITY  (low/ high/ unclear)</t>
+  </si>
+  <si>
+    <t>1.1 Were appropriate data sources used, e.g. cohort, RCT or nested case-control study data?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 Were predictor assessments made without knowledge of outcome data? </t>
+  </si>
+  <si>
+    <t>Fernandes, A. C., Dutta, R., Velupillai, S., Sanyal, J., Stewart, R., &amp; Chandran, D. (2018). Identifying Suicide Ideation and Suicidal Attempts in a Psychiatric Clinical Research Database using Natural Language Processing. Scientific Reports, 8(1), 7426. https://doi.org/10.1038/s41598-018-25773-2</t>
+  </si>
+  <si>
+    <t>Fernandes_2018</t>
+  </si>
+  <si>
+    <t>Identify patients with suicidal ideation</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Identify suicide ideation from clinical notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In our case, the data extracted from each
+classifer will be used to contribute to research investigating the association of antidepressant use with suicide
+ideation and suicide attempt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performed well as indicated by high precision and recall statistics. Tis is one of few current studies exploring and applying text mining sofware to specifcally build classifcation algorithms within a large psychiatric
+database to detect suicidal ideation and attempts</t>
+  </si>
+  <si>
+    <t>andrea.fernandes@kcl.ac.uk</t>
+  </si>
+  <si>
+    <t>Choi, S. B., Lee, W., Yoon, J.-H., Won, J.-U., &amp; Kim, D. W. (2018). Ten-year prediction of suicide death using Cox regression and machine learning in a nationwide retrospective cohort study in South Korea. Journal of Affective Disorders, 231, 8–14. https://doi.org/10.1016/j.jad.2018.01.019</t>
+  </si>
+  <si>
+    <t>Jackson, R. G., Patel, R., Jayatilleke, N., Kolliakou, A., Ball, M., Gorrell, G., Roberts, A., Dobson, R. J., &amp; Stewart, R. (2017). Natural language processing to extract symptoms of severe mental illness from clinical text: The Clinical Record Interactive Search Comprehensive Data Extraction (CRIS-CODE) project. BMJ Open, 7(1), e012012. https://doi.org/10.1136/bmjopen-2016-012012</t>
+  </si>
+  <si>
+    <t>Jackson_2016</t>
+  </si>
+  <si>
+    <t>Identify severe mental illnesses</t>
+  </si>
+  <si>
+    <t>Identify suicide attempt</t>
+  </si>
+  <si>
+    <t>Identify patients with suicide attempt</t>
+  </si>
+  <si>
+    <t>Detect severe mental illness (SMI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We therefore hope that the outputs of
+this project will offer the tools/techniques to use the
+large amounts of SMI symptomatology data contained
+within EHR systems, and provide new insight into the
+value of using SMI symptoms as predictors of a range of
+outcome measures</t>
+  </si>
+  <si>
+    <t>Using a large mental health EHR data resource, we were
+able to generate an extensive NLP-derived profiling of
+symptomatology in SMI</t>
+  </si>
+  <si>
+    <t>richgjackson@gmail.com</t>
+  </si>
+  <si>
+    <t>Review_short</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Study_short</t>
+  </si>
+  <si>
+    <t>Study_number</t>
+  </si>
+  <si>
+    <t>Sample_number</t>
+  </si>
+  <si>
+    <t>Publication_status</t>
+  </si>
+  <si>
+    <t>Pub_year</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Subjects_target</t>
+  </si>
+  <si>
+    <t>Subjects_comparison</t>
+  </si>
+  <si>
+    <t>Sample_size_training</t>
+  </si>
+  <si>
+    <t>Age_range</t>
+  </si>
+  <si>
+    <t>Mean_age</t>
+  </si>
+  <si>
+    <t>Percent_female</t>
+  </si>
+  <si>
+    <t>Source_training</t>
+  </si>
+  <si>
+    <t>Predictors_type</t>
+  </si>
+  <si>
+    <t>Predictors_type_details</t>
+  </si>
+  <si>
+    <t>Study_type</t>
+  </si>
+  <si>
+    <t>Feature_selection</t>
+  </si>
+  <si>
+    <t>ML_Method</t>
+  </si>
+  <si>
+    <t>Internal_validation</t>
+  </si>
+  <si>
+    <t>External_validation</t>
+  </si>
+  <si>
+    <t>Multiple_external_validation</t>
+  </si>
+  <si>
+    <t>Subjects_target_validation</t>
+  </si>
+  <si>
+    <t>Subjects_comparison_validation</t>
+  </si>
+  <si>
+    <t>Sample_size_validation</t>
+  </si>
+  <si>
+    <t>Best_algorithm</t>
+  </si>
+  <si>
+    <t>Positive_predictive_value</t>
+  </si>
+  <si>
+    <t>Negative_predictive_value</t>
+  </si>
+  <si>
+    <t>Accuracy_validation</t>
+  </si>
+  <si>
+    <t>Specificity_validation</t>
+  </si>
+  <si>
+    <t>Sensitivity_validation</t>
+  </si>
+  <si>
+    <t>Precision_validation</t>
+  </si>
+  <si>
+    <t>AUC_validation</t>
+  </si>
+  <si>
+    <t>F1_validation</t>
+  </si>
+  <si>
+    <t>Positive_predictive_value_validation</t>
+  </si>
+  <si>
+    <t>Negative_predictive_value_validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practical_benefit </t>
+  </si>
+  <si>
+    <t>Meta info</t>
+  </si>
+  <si>
+    <t>Review_s</t>
+  </si>
+  <si>
+    <t>Study_s</t>
+  </si>
+  <si>
+    <t>Study_no</t>
+  </si>
+  <si>
+    <t>Sample_no</t>
+  </si>
+  <si>
+    <t>Pub_stat</t>
+  </si>
+  <si>
+    <t>Category_d</t>
+  </si>
+  <si>
+    <t>Category_details</t>
+  </si>
+  <si>
+    <t>Sub_tar</t>
+  </si>
+  <si>
+    <t>Sub_com</t>
+  </si>
+  <si>
+    <t>SS_train</t>
+  </si>
+  <si>
+    <t>Prct_fem</t>
+  </si>
+  <si>
+    <t>Pred_type</t>
+  </si>
+  <si>
+    <t>Pred_type_d</t>
+  </si>
+  <si>
+    <t>Mod</t>
+  </si>
+  <si>
+    <t>Feature_sel</t>
+  </si>
+  <si>
+    <t>ML_method</t>
+  </si>
+  <si>
+    <t>Int_val</t>
+  </si>
+  <si>
+    <t>Ext_val</t>
+  </si>
+  <si>
+    <t>M_ext_val</t>
+  </si>
+  <si>
+    <t>Sub_tar_val</t>
+  </si>
+  <si>
+    <t>Sub_com_val</t>
+  </si>
+  <si>
+    <t>SS_val</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>Sens</t>
+  </si>
+  <si>
+    <t>Prec</t>
+  </si>
+  <si>
+    <t>PPV</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Acc_val</t>
+  </si>
+  <si>
+    <t>Spec_val</t>
+  </si>
+  <si>
+    <t>Sens_val</t>
+  </si>
+  <si>
+    <t>Prec_val</t>
+  </si>
+  <si>
+    <t>AUC_val</t>
+  </si>
+  <si>
+    <t>F1_val</t>
+  </si>
+  <si>
+    <t>PPV_val</t>
+  </si>
+  <si>
+    <t>NPV_val</t>
+  </si>
+  <si>
+    <t>Pract_ben</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P_inart</t>
+  </si>
+  <si>
+    <t>P_name</t>
+  </si>
+  <si>
+    <t>P_comp</t>
+  </si>
+  <si>
+    <t>P_subs</t>
+  </si>
+  <si>
+    <t>P_mod</t>
+  </si>
+  <si>
+    <t>P_disease</t>
+  </si>
+  <si>
+    <t>P_feat</t>
+  </si>
+  <si>
+    <t>P_use</t>
+  </si>
+  <si>
+    <t>P_pop</t>
+  </si>
+  <si>
+    <t>P_input</t>
+  </si>
+  <si>
+    <t>P_input_for</t>
+  </si>
+  <si>
+    <t>P_output</t>
+  </si>
+  <si>
+    <t>P_output_for</t>
+  </si>
+  <si>
+    <t>P_integ</t>
+  </si>
+  <si>
+    <t>P_deploy</t>
+  </si>
+  <si>
+    <t>P_ana_tr</t>
+  </si>
+  <si>
+    <t>P_proc_tim</t>
+  </si>
+  <si>
+    <t>P_CE</t>
+  </si>
+  <si>
+    <t>P_FDA</t>
+  </si>
+  <si>
+    <t>P_market</t>
+  </si>
+  <si>
+    <t>P_chan</t>
+  </si>
+  <si>
+    <t>P_count</t>
+  </si>
+  <si>
+    <t>P_pay_cust</t>
+  </si>
+  <si>
+    <t>P_test_us</t>
+  </si>
+  <si>
+    <t>P_pricing</t>
+  </si>
+  <si>
+    <t>P_pricing_bas</t>
+  </si>
+  <si>
+    <t>Q_11</t>
+  </si>
+  <si>
+    <t>Q_12</t>
+  </si>
+  <si>
+    <t>Q_D1A</t>
+  </si>
+  <si>
+    <t>Q_D1B</t>
+  </si>
+  <si>
+    <t>Q_21</t>
+  </si>
+  <si>
+    <t>Q_22</t>
+  </si>
+  <si>
+    <t>Q_23</t>
+  </si>
+  <si>
+    <t>Q_D2A</t>
+  </si>
+  <si>
+    <t>Q_D2B</t>
+  </si>
+  <si>
+    <t>Q_31</t>
+  </si>
+  <si>
+    <t>Q_32</t>
+  </si>
+  <si>
+    <t>Q_33</t>
+  </si>
+  <si>
+    <t>Q_34</t>
+  </si>
+  <si>
+    <t>Q_35</t>
+  </si>
+  <si>
+    <t>Q_36</t>
+  </si>
+  <si>
+    <t>Q_D3A</t>
+  </si>
+  <si>
+    <t>Q_D3B</t>
+  </si>
+  <si>
+    <t>Q_41</t>
+  </si>
+  <si>
+    <t>Q_42</t>
+  </si>
+  <si>
+    <t>Q_43</t>
+  </si>
+  <si>
+    <t>Q_44</t>
+  </si>
+  <si>
+    <t>Q_45</t>
+  </si>
+  <si>
+    <t>Q_46</t>
+  </si>
+  <si>
+    <t>Q_47</t>
+  </si>
+  <si>
+    <t>Q_48</t>
+  </si>
+  <si>
+    <t>Q_D4A</t>
+  </si>
+  <si>
+    <t>Subthreshold</t>
+  </si>
+  <si>
+    <t>Social_anxiety_disorder</t>
+  </si>
+  <si>
+    <t>Pred</t>
+  </si>
+  <si>
+    <t>Diag</t>
+  </si>
+  <si>
+    <t>South_Korea</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
+  <si>
+    <t>S38</t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>S42</t>
+  </si>
+  <si>
+    <t>S43</t>
+  </si>
+  <si>
+    <t>S44</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Q24</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>Q26</t>
+  </si>
+  <si>
+    <t>Q_Note</t>
+  </si>
+  <si>
+    <t>Q27</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>P_Note</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>67.80</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>cross_val</t>
+  </si>
+  <si>
+    <t>gold_stand</t>
+  </si>
+  <si>
+    <t>LLO</t>
+  </si>
+  <si>
+    <t>10_fold_cross_val</t>
+  </si>
+  <si>
+    <t>Cox_regression</t>
+  </si>
+  <si>
+    <t>GATE_+_JAPE</t>
+  </si>
+  <si>
+    <t>TextHunter_+_SQl post-processing</t>
+  </si>
+  <si>
+    <t>TectHunter_+_ConText</t>
+  </si>
+  <si>
+    <t>Ensemble_tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN_+_score_thresholding </t>
+  </si>
+  <si>
+    <t>Logistic_regression</t>
+  </si>
+  <si>
+    <t>L1-SCCA_+_SLR_+_logistic regression</t>
+  </si>
+  <si>
+    <t>In conclusion, neural substrates during safety signal processing differed between patients with or without comorbid depression, a finding which may partly explain heterogeneous results across neuroimaging studies including comorbid patients (which are however representative for the typical patient seen in clinical practice). Furthermore, comorbid depression was associated with relative insular and dorsolateral prefrontal deactivation during the processing of cues signaling uncontrollable aversive stimuli, a finding which could reflect states of learned helplessness.</t>
+  </si>
+  <si>
+    <t>Findings demonstrate the relevance of comorbidity patterns when investigating neurobiological substrates of anxiety disorders. The prediction of individual comorbidity status may translate neurofunctional data into clinically relevant information which might aid in planning individualized treatment.</t>
+  </si>
+  <si>
+    <t>S46</t>
+  </si>
+  <si>
+    <t>Percentage_cases</t>
+  </si>
+  <si>
+    <t>Prct_case</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>60.4</t>
+  </si>
+  <si>
+    <t>77.6</t>
+  </si>
+  <si>
+    <t>71.1</t>
+  </si>
+  <si>
+    <t>44.1</t>
+  </si>
+  <si>
+    <t>In this paper, we demonstrated that the short history of present illness segment in a psychiatric evaluation note can be used as a good predictor for a few psychiatric conditions. We introduced models based on CNNs and RNNs and compared them to baseline models. We showed that CNNs had superior performance on average while RNNs with attention networks are more suitable when interpretability is desired. We found that the CNN model with output score thresholding results in statistically significant improvements over all other models. However, our efforts in employing RNNs to address the problem are preliminary.</t>
+  </si>
+  <si>
+    <t>E-mail addresses: tung.tran@uky.edu (T. Tran), ramakanth.kavuluru@uky.edu (R. Kavuluru).</t>
+  </si>
+  <si>
+    <t>NLP_single_label_class</t>
+  </si>
+  <si>
+    <t>NLP_multi_label_class</t>
+  </si>
+  <si>
+    <t>unclear</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unclear </t>
+  </si>
+  <si>
+    <t>40.9</t>
+  </si>
+  <si>
+    <t>27.6</t>
+  </si>
+  <si>
+    <t>In summary, we have developed a generalizable rs-fcMRIbased classifier for ASD28 for the first time. Despite the fact that this classifier is based on a small number of identified FCs, it greatly distinguishes ASD from TD with demonstrated generalization in the independent validation cohorts, and accounts for socio-communicative aspects of ASD</t>
+  </si>
+  <si>
+    <t>The generalization capability across imaging sites is a bare minimal requirement for a classifier towards its clinical applications. If reliable classifiers for ASD, SCZ, MDD, ADHD and even other disorders are developed in the near future, these classifiers may be utilized as a new diagnostic tool as a set of biomarkers that can quantify intrinsic FCs of individuals who need in-depth clinical examinations for various disorders. Such quantification is possible because multiple biomarkers can use the same rs-fcMRI data from an individual. In this vein, the current study could provide a foundation for such a future direction in neuropsychiatric diagnoses.</t>
+  </si>
+  <si>
+    <t>Correspondence and requests for materials should be addressed to Y.S. (email: yuka_sasaki@brown.edu) or to M.K. (email: kawato@atr.jp).</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Oh, D. H., Kim, I. B., Kim, S. H., &amp; Ahn, D. H. (2017). Predicting Autism Spectrum Disorder Using Blood-based Gene Expression Signatures and Machine Learning. Clinical Psychopharmacology and Neuroscience, 15(1), 47–52. https://doi.org/10.9758/cpn.2017.15.1.47</t>
+  </si>
+  <si>
+    <t>Oh_2017</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>Identify ASD patients</t>
+  </si>
+  <si>
+    <t>26.9</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>Microarray</t>
+  </si>
+  <si>
+    <t>train_test_split_38</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>Sparse_correlations</t>
+  </si>
+  <si>
+    <t>88.9</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>In conclusion, this study reveals a blood-based gene expression signature that has promising accuracy in distinguishing between young adults with ASD and age- and sex-matched unaffected controls. The ability of the 19 DE probes to correctly predict ASD samples compares favorably with the results of four previous studies on ASD diagnosis in toddlers and children. This transcriptomics approach may shed light on an important aspect of clinical biomarker discovery, offering high predictive accuracy for detecting ASD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> These strategies for class prediction analyses will help identify robust biomarkers for both the diagnosis of ASD and individualized treatment options for patients and their families.39)</t>
+  </si>
+  <si>
+    <t>68.8</t>
+  </si>
+  <si>
+    <t>72.3</t>
+  </si>
+  <si>
+    <t>87.8</t>
+  </si>
+  <si>
+    <t>91.7</t>
+  </si>
+  <si>
+    <t>98.2</t>
+  </si>
+  <si>
+    <t>82.8</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>61.1</t>
+  </si>
+  <si>
+    <t>65.6</t>
+  </si>
+  <si>
+    <t>63.1</t>
+  </si>
+  <si>
+    <t>81.5</t>
+  </si>
+  <si>
+    <t>82.5</t>
+  </si>
+  <si>
+    <t>85.2</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>75.8</t>
+  </si>
+  <si>
+    <t>76.7</t>
+  </si>
+  <si>
+    <t>76.3</t>
+  </si>
+  <si>
+    <t>75.4</t>
+  </si>
+  <si>
+    <t>93.8</t>
+  </si>
+  <si>
+    <t>87.5</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>E-mail: ahndh@hanyang.ac.kr</t>
+  </si>
+  <si>
+    <t>Koutsouleris, N., Davatzikos, C., Borgwardt, S., Gaser, C., Bottlender, R., Frodl, T., Falkai, P., Riecher-Rössler, A., Möller, H.-J., Reiser, M., Pantelis, C., &amp; Meisenzahl, E. (2014). Accelerated Brain Aging in Schizophrenia and Beyond: A Neuroanatomical Marker of Psychiatric Disorders. Schizophrenia Bulletin, 40(5), 1140–1153. https://doi.org/10.1093/schbul/sbt142</t>
+  </si>
+  <si>
+    <t>The aim of this study was to identify a transcriptomic signature that could be used to classify subjects with autism spectrum disorder (ASD) compared to controls on the basis of blood gene expression profiles</t>
+  </si>
+  <si>
+    <t>Structural brain abnormalities are central to schizophrenia (SZ), but it remains unknown whether they are linked to dysmaturational processes crossing diagnostic boundaries, aggravating across disease stages, and driving the neurodiagnostic signature of the illness. Therefore, we investigated whether patients with SZ (N = 141), major depression (MD; N = 104), borderline personality disorder (BPD; N = 57), and individuals in at-risk mental states for psychosis (ARMS; N = 89) deviated from the trajectory of normal brain maturation</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>18-56</t>
+  </si>
+  <si>
+    <t>X_fold_cross_val</t>
+  </si>
+  <si>
+    <t>73.7</t>
+  </si>
+  <si>
+    <t>suggesting “accelerated aging” effects already in early schizophrenic psychosis, as well as in established MD and BPD. Moreover, these transnosological effects were more pronounced in early- vs late-onset MD and BPD, thus rendering these subgroups indistinguishable from schizophrenic patients.In summary, our results suggest that the BrainAGE framework provides a transnosological biomarker that (1) results from a disruption of normal brain maturation shared by different psychiatric phenotypes, (2) determines the case-by-case diagnostic performance of MRI-based disease classifiers, and (3) quantifies the risk for unfavorable clinical outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nikolaos.koutsouleris@med.uni-muenchen.de</t>
+  </si>
+  <si>
+    <t>Aafjes-van Doorn, K., Kamsteeg, C., Bate, J., &amp; Aafjes, M. (2021). A scoping review of machine learning in psychotherapy research. Psychotherapy Research, 31(1), 92–116. https://doi.org/10.1080/10503307.2020.1808729</t>
+  </si>
+  <si>
+    <t>GS2_Doorn_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnostic </t>
+  </si>
+  <si>
+    <t>Diagnostic</t>
+  </si>
+  <si>
+    <t>S47</t>
+  </si>
+  <si>
+    <t>Preprocess</t>
+  </si>
+  <si>
+    <t>Preprocessing</t>
+  </si>
+  <si>
+    <t>S48</t>
+  </si>
+  <si>
+    <t>Matched</t>
+  </si>
+  <si>
+    <t>S49</t>
+  </si>
+  <si>
+    <t>Positives_total</t>
+  </si>
+  <si>
+    <t>Negatives_total</t>
+  </si>
+  <si>
+    <t>True_positives</t>
+  </si>
+  <si>
+    <t>True_negatives</t>
+  </si>
+  <si>
+    <t>False_positives</t>
+  </si>
+  <si>
+    <t>False_negatives</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>S50</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>S52</t>
+  </si>
+  <si>
+    <t>S53</t>
+  </si>
+  <si>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>S55</t>
+  </si>
+  <si>
+    <t>Althoff_2016</t>
+  </si>
+  <si>
+    <t>identify conversation startagies associated with better conversation outcomes</t>
+  </si>
+  <si>
+    <t>Koutsouleris_2014</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +4116,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-m"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2139,8 +4192,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2221,12 +4286,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor rgb="FFA4C2F4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2251,7 +4310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2288,17 +4347,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3757,10 +5834,10 @@
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C32" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4096,13 +6173,13 @@
       <c r="I7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="17" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="M7" s="13">
         <v>6</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -4126,13 +6203,13 @@
       <c r="I8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="M8" s="13">
         <v>7</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -22118,1658 +24195,4409 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:DC11"/>
+  <dimension ref="A1:DP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="CC15" sqref="CC15"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="68" max="68" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="30" t="s">
-        <v>482</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="BD1" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="33"/>
-      <c r="BO1" s="33"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33"/>
-      <c r="BV1" s="33"/>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="33"/>
-      <c r="BY1" s="33"/>
-      <c r="BZ1" s="33"/>
-      <c r="CA1" s="33"/>
-      <c r="CB1" s="33"/>
-      <c r="CC1" s="33"/>
-      <c r="CD1" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="CE1" s="37"/>
-      <c r="CF1" s="37"/>
-      <c r="CG1" s="37"/>
-      <c r="CH1" s="37"/>
-      <c r="CI1" s="37"/>
-      <c r="CJ1" s="37"/>
-      <c r="CK1" s="37"/>
-      <c r="CL1" s="37"/>
-      <c r="CM1" s="37"/>
-      <c r="CN1" s="37"/>
-      <c r="CO1" s="37"/>
-      <c r="CP1" s="37"/>
-      <c r="CQ1" s="37"/>
-      <c r="CR1" s="37"/>
-      <c r="CS1" s="37"/>
-      <c r="CT1" s="37"/>
-      <c r="CU1" s="37"/>
-      <c r="CV1" s="37"/>
-      <c r="CW1" s="37"/>
-      <c r="CX1" s="37"/>
-      <c r="CY1" s="37"/>
-      <c r="CZ1" s="37"/>
-      <c r="DA1" s="37"/>
-      <c r="DB1" s="37"/>
-      <c r="DC1" s="37"/>
-    </row>
-    <row r="2" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="42"/>
+      <c r="BJ1" s="42"/>
+      <c r="BK1" s="42"/>
+      <c r="BL1" s="31"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
+      <c r="BS1" s="43"/>
+      <c r="BT1" s="43"/>
+      <c r="BU1" s="43"/>
+      <c r="BV1" s="43"/>
+      <c r="BW1" s="43"/>
+      <c r="BX1" s="43"/>
+      <c r="BY1" s="43"/>
+      <c r="BZ1" s="43"/>
+      <c r="CA1" s="43"/>
+      <c r="CB1" s="43"/>
+      <c r="CC1" s="43"/>
+      <c r="CD1" s="43"/>
+      <c r="CE1" s="43"/>
+      <c r="CF1" s="43"/>
+      <c r="CG1" s="43"/>
+      <c r="CH1" s="43"/>
+      <c r="CI1" s="43"/>
+      <c r="CJ1" s="43"/>
+      <c r="CK1" s="43"/>
+      <c r="CL1" s="43"/>
+      <c r="CM1" s="43"/>
+      <c r="CN1" s="43"/>
+      <c r="CO1" s="36"/>
+      <c r="CP1" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="CQ1" s="44"/>
+      <c r="CR1" s="44"/>
+      <c r="CS1" s="44"/>
+      <c r="CT1" s="44"/>
+      <c r="CU1" s="44"/>
+      <c r="CV1" s="44"/>
+      <c r="CW1" s="44"/>
+      <c r="CX1" s="44"/>
+      <c r="CY1" s="44"/>
+      <c r="CZ1" s="44"/>
+      <c r="DA1" s="44"/>
+      <c r="DB1" s="44"/>
+      <c r="DC1" s="44"/>
+      <c r="DD1" s="44"/>
+      <c r="DE1" s="44"/>
+      <c r="DF1" s="44"/>
+      <c r="DG1" s="44"/>
+      <c r="DH1" s="44"/>
+      <c r="DI1" s="44"/>
+      <c r="DJ1" s="44"/>
+      <c r="DK1" s="44"/>
+      <c r="DL1" s="44"/>
+      <c r="DM1" s="44"/>
+      <c r="DN1" s="44"/>
+      <c r="DO1" s="44"/>
+      <c r="DP1" s="37"/>
+    </row>
+    <row r="2" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>267</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>268</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="I2" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="O2" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC2" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD2" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="AE2" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="AG2" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="AH2" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="AI2" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="AJ2" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK2" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL2" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="AM2" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="AN2" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="AO2" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="AP2" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="AQ2" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="AR2" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="AS2" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="AT2" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="AU2" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV2" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="AW2" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="AX2" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY2" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="AZ2" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="BA2" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="BB2" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="BC2" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD2" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="BE2" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="BF2" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="BG2" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="BH2" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="BI2" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="BJ2" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="BK2" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="BL2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM2" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="BN2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO2" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BP2" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="BQ2" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="BR2" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="BS2" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="BT2" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="BU2" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="BV2" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="BW2" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX2" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="BY2" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="BZ2" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="CA2" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="CB2" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="CC2" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="CD2" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="CE2" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="CF2" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="CG2" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="CH2" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="CI2" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="CJ2" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="CK2" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="CL2" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="CM2" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="CN2" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="CO2" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP2" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="H2" s="24" t="s">
+      <c r="CQ2" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="CR2" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="CS2" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="CT2" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="CU2" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="CV2" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="CW2" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="CX2" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="CY2" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="CZ2" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="DA2" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="DB2" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="DC2" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="DD2" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="DE2" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="DF2" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="DG2" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="DH2" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="DI2" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="DJ2" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="DK2" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="DL2" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="DM2" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="DN2" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="DO2" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="DP2" s="33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC3" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD3" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE3" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF3" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="AG3" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="AH3" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="AI3" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="AJ3" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="AK3" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="AL3" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="AM3" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="AN3" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="AO3" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="AP3" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="AQ3" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="AR3" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="AS3" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="AT3" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="AU3" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="AV3" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="AW3" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="AX3" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY3" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="AZ3" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="BA3" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="BB3" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="BC3" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="BD3" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="BE3" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="BF3" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="BG3" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="BH3" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="BI3" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="BJ3" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="BK3" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="BL3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM3" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="BN3" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO3" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="BP3" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="BQ3" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="BR3" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="BS3" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="BT3" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="BU3" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="BV3" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="BW3" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="BX3" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="BY3" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="BZ3" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="CA3" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="CB3" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="CC3" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="CD3" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="CE3" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="CF3" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="CG3" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="CH3" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="CI3" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="CJ3" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="CK3" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="CL3" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM3" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="CN3" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="CO3" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="CP3" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="CQ3" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="CR3" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="CS3" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="CT3" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="CU3" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="CV3" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="CW3" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="CX3" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="CY3" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="CZ3" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="DA3" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="DB3" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="DC3" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="DD3" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="DE3" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="DF3" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="DG3" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="DH3" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="DI3" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="DJ3" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="DK3" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DL3" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="DM3" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="DN3" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="DO3" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="DP3" s="33" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB4" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC4" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD4" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE4" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF4" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG4" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="AH4" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="AI4" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="AJ4" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="AK4" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="AL4" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM4" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="AN4" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="AO4" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="AP4" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="AQ4" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="AR4" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="AS4" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT4" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="AU4" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="AV4" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="AW4" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="AX4" s="30" t="s">
+        <v>616</v>
+      </c>
+      <c r="AY4" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="AZ4" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="BA4" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="BB4" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="BC4" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="BD4" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE4" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="BF4" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="BG4" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="BH4" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="BI4" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="BJ4" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="BK4" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="BL4" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="BM4" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="BN4" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="BO4" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="BP4" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="BQ4" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="BR4" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="BS4" s="38" t="s">
+        <v>627</v>
+      </c>
+      <c r="BT4" s="38" t="s">
+        <v>628</v>
+      </c>
+      <c r="BU4" s="38" t="s">
+        <v>629</v>
+      </c>
+      <c r="BV4" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="BW4" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="BX4" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="BY4" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="BZ4" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="CA4" s="38" t="s">
+        <v>635</v>
+      </c>
+      <c r="CB4" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="CC4" s="38" t="s">
+        <v>637</v>
+      </c>
+      <c r="CD4" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="CE4" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="CF4" s="38" t="s">
+        <v>640</v>
+      </c>
+      <c r="CG4" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="CH4" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="CI4" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="CJ4" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="CK4" s="38" t="s">
+        <v>645</v>
+      </c>
+      <c r="CL4" s="38" t="s">
+        <v>646</v>
+      </c>
+      <c r="CM4" s="38" t="s">
+        <v>647</v>
+      </c>
+      <c r="CN4" s="40" t="s">
+        <v>648</v>
+      </c>
+      <c r="CO4" s="38" t="s">
+        <v>650</v>
+      </c>
+      <c r="CP4" s="33" t="s">
+        <v>651</v>
+      </c>
+      <c r="CQ4" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="CR4" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="CS4" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="CT4" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="CU4" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="CV4" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="CW4" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="CX4" s="33" t="s">
+        <v>659</v>
+      </c>
+      <c r="CY4" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="CZ4" s="33" t="s">
+        <v>661</v>
+      </c>
+      <c r="DA4" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="DB4" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="DC4" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="DD4" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="DE4" s="33" t="s">
+        <v>666</v>
+      </c>
+      <c r="DF4" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="DG4" s="33" t="s">
+        <v>668</v>
+      </c>
+      <c r="DH4" s="33" t="s">
+        <v>669</v>
+      </c>
+      <c r="DI4" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="DJ4" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="DK4" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="DL4" s="33" t="s">
+        <v>672</v>
+      </c>
+      <c r="DM4" s="33" t="s">
+        <v>673</v>
+      </c>
+      <c r="DN4" s="33" t="s">
+        <v>674</v>
+      </c>
+      <c r="DO4" s="33" t="s">
+        <v>675</v>
+      </c>
+      <c r="DP4" s="33" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="J5" s="13">
+        <v>2018</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="S5" s="3">
+        <v>573.96500000000003</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG5" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="AH5" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="AI5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK5" s="13">
+        <v>245.98599999999999</v>
+      </c>
+      <c r="AL5" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="AT5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AX5" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="AY5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF5" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="BG5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK5" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="BL5" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="BO5" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BP5" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BQ5" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="BR5" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BS5" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BT5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BU5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BV5" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BW5" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BX5" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="BY5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BZ5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CA5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CB5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CC5" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CD5" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CE5" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CF5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CG5" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CH5" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="CI5" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CJ5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CK5" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CL5" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="CM5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CN5" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="CO5" s="13"/>
+    </row>
+    <row r="6" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="J6" s="13">
+        <v>2018</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="S6" s="13">
+        <v>500</v>
+      </c>
+      <c r="T6" s="45"/>
+      <c r="U6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK6" s="13">
+        <v>500</v>
+      </c>
+      <c r="AL6" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="AT6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV6" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="AW6" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="AX6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ6" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="BK6" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="BL6" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM6" s="13"/>
+      <c r="BN6" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="BO6" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BP6" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BQ6" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="BR6" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BS6" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BT6" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BU6" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BV6" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="BW6" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BX6" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BY6" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BZ6" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="CA6" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CB6" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="CC6" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CD6" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="CE6" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="CF6" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CG6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CH6" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CJ6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CK6" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CL6" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CM6" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CN6" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CO6" s="13"/>
+    </row>
+    <row r="7" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="J7" s="13">
+        <v>2018</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="S7" s="13">
+        <v>500</v>
+      </c>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK7" s="13">
+        <v>500</v>
+      </c>
+      <c r="AL7" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="AT7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV7" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="AW7" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="AX7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ7" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="BK7" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="BL7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM7" s="13"/>
+      <c r="BN7" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="BO7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BP7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BQ7" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="BR7" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BS7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BT7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BU7" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BV7" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="BW7" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BX7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BY7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BZ7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="CA7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CB7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="CC7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CD7" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="CE7" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="CF7" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CG7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CH7" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CJ7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CK7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CL7" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CM7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CN7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CO7" s="13"/>
+    </row>
+    <row r="8" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" s="13">
+        <v>2016</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="S8" s="13">
+        <v>17902</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>37211</v>
+      </c>
+      <c r="AL8" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV8" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="AW8" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="AX8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY8" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="AZ8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ8" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="J2" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="L2" s="31" t="s">
+      <c r="BK8" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="BL8" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM8" s="13"/>
+      <c r="BN8" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="R2" s="31" t="s">
+      <c r="BO8" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BP8" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BQ8" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="BR8" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BS8" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BT8" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BU8" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BV8" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="BW8" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="BX8" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BY8" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BZ8" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="CA8" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CB8" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="CC8" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CD8" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="CE8" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CF8" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CG8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CH8" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CJ8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CK8" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CL8" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CM8" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CN8" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CO8" s="13"/>
+    </row>
+    <row r="9" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="34"/>
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="13"/>
+      <c r="BM9" s="13"/>
+      <c r="BN9" s="18"/>
+      <c r="BO9" s="13"/>
+      <c r="BP9" s="13"/>
+      <c r="BQ9" s="13"/>
+      <c r="BR9" s="13"/>
+      <c r="BS9" s="13"/>
+      <c r="BT9" s="13"/>
+      <c r="BU9" s="13"/>
+      <c r="BV9" s="13"/>
+      <c r="BW9" s="13"/>
+      <c r="BX9" s="13"/>
+      <c r="BY9" s="13"/>
+      <c r="BZ9" s="13"/>
+      <c r="CA9" s="13"/>
+      <c r="CB9" s="13"/>
+      <c r="CC9" s="13"/>
+      <c r="CD9" s="13"/>
+      <c r="CE9" s="13"/>
+      <c r="CF9" s="13"/>
+      <c r="CG9" s="13"/>
+      <c r="CH9" s="13"/>
+      <c r="CI9" s="13"/>
+      <c r="CJ9" s="13"/>
+      <c r="CK9" s="13"/>
+      <c r="CL9" s="13"/>
+      <c r="CM9" s="13"/>
+      <c r="CN9" s="13"/>
+      <c r="CO9" s="13"/>
+    </row>
+    <row r="10" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P10" s="39"/>
+      <c r="AH10" s="13"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+    </row>
+    <row r="11" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="8">
+        <v>101</v>
+      </c>
+      <c r="G11" s="8">
+        <v>101</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="J11">
+        <v>2015</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="S11">
+        <v>59</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA11" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB11" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG11" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI11" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL11" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="AT11" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="AU11" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="AV11" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="AW11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AX11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ11" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="BK11" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="BL11" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM11" s="8"/>
+      <c r="BN11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="BO11" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BP11" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BQ11" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="BR11" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BS11" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BT11" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BU11" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BV11" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BW11" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BX11" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BY11" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BZ11" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="CA11" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB11" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="CC11" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="CD11" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="CE11" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="CF11" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="CG11" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CH11" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CJ11" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CK11" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CL11" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CM11" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CN11" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F12" s="20">
+        <v>102</v>
+      </c>
+      <c r="G12" s="20">
+        <v>102</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="J12">
+        <v>2017</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="S12">
+        <v>986</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB12" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG12" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="AT12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV12" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="AW12" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="AX12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY12" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="AZ12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ12" s="34" t="s">
+        <v>705</v>
+      </c>
+      <c r="BK12" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="BL12" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM12" s="8"/>
+      <c r="BN12" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="BO12" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BP12" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BQ12" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BR12" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BS12" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BT12" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BU12" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BV12" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="BW12" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BX12" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="BY12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BZ12" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="CA12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB12" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="CC12" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CD12" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="CE12" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="CF12" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CG12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CH12" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CJ12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CK12" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CL12" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CM12" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CN12" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F13" s="20">
+        <v>103</v>
+      </c>
+      <c r="G13" s="20">
+        <v>103</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="J13">
+        <v>2015</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA13" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="S2" s="31" t="s">
-        <v>504</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="U2" s="31" t="s">
+      <c r="AB13" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG13" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL13" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AT13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV13" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="AW13" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="AX13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ13" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="BK13" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="BL13" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM13" s="8"/>
+      <c r="BN13" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="BO13" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BP13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BQ13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BR13" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="BS13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BT13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BU13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BV13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BW13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BX13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BY13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="BZ13" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CA13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CB13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CD13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CE13" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="CF13" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="CG13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CH13" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CJ13" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CK13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="CL13" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CM13" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="CN13" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="E14" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="F14" s="8">
+        <v>104</v>
+      </c>
+      <c r="G14" s="8">
+        <v>104</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="J14">
+        <v>2015</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="S14">
+        <v>40</v>
+      </c>
+      <c r="T14" s="13"/>
+      <c r="U14" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB14" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG14" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH14" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ14" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL14" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="AT14" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="AU14" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="AV14" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="AW14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AX14" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="AY14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ14" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA14" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ14" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="BK14" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="BL14" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="BO14" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="BP14" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BQ14" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BR14" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BS14" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BT14" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BU14" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BV14" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BW14" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BX14" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="BY14" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="BZ14" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CA14" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CB14" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CC14" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CD14" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="CE14" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="CF14" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="CG14" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="CH14" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="CI14" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="CJ14" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="CK14" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="CL14" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CM14" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CN14" s="45" t="s">
+        <v>713</v>
+      </c>
+      <c r="CO14" s="21"/>
+    </row>
+    <row r="15" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="W2" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="X2" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y2" s="31" t="s">
+      <c r="C15" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F15" s="8">
+        <v>105</v>
+      </c>
+      <c r="G15" s="8">
+        <v>105</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="J15">
+        <v>2016</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="S15">
+        <v>181</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="V15" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="W15" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="AH15" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="AK15">
+        <v>88</v>
+      </c>
+      <c r="AL15" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="AY15" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ15" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA15" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="BC15" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD15" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE15" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF15" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG15" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH15" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI15" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ15" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="BK15" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="BL15" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BN15" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="BO15" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BP15" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="BQ15" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="BR15" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="BS15" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="BT15" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="BU15" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="BV15" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="BW15" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="BX15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="BY15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="BZ15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CA15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CB15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CC15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CD15" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="CE15" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="CF15" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="CG15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CH15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI15" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="CJ15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CK15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CL15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CM15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="CN15" s="45" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F16" s="8">
+        <v>106</v>
+      </c>
+      <c r="G16" s="8">
+        <v>106</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="J16">
+        <v>2015</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="S16">
+        <v>296</v>
+      </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="V16" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="W16" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF16" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG16" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH16" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL16" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="AT16" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="AU16" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="AV16" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="AW16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AX16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ16" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="BA16" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="BB16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ16" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="Z2" s="31" t="s">
-        <v>507</v>
-      </c>
-      <c r="AA2" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB2" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="AC2" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="AD2" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="AE2" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="AF2" s="31" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG2" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH2" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="AI2" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="AJ2" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="AK2" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="AL2" s="31" t="s">
+      <c r="BK16" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="BL16" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM16" s="8"/>
+      <c r="BN16" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="BO16" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BP16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BQ16" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BR16" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BS16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BT16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BU16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BV16" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BW16" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BX16" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="BY16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BZ16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CA16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CB16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CC16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CD16" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="CE16" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="CF16" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="CG16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CH16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="CJ16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CK16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CL16" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="CM16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CN16" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="CO16" s="8"/>
+    </row>
+    <row r="17" spans="2:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="F17" s="8">
+        <v>107</v>
+      </c>
+      <c r="G17" s="8">
+        <v>107</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="J17">
+        <v>2015</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="S17">
+        <v>42</v>
+      </c>
+      <c r="T17" s="13"/>
+      <c r="U17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="V17" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="W17" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="AM2" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="AN2" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="AO2" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP2" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="AQ2" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="AR2" s="31" t="s">
-        <v>415</v>
-      </c>
-      <c r="AS2" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="AT2" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="AU2" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="AV2" s="31" t="s">
-        <v>435</v>
-      </c>
-      <c r="AW2" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="AX2" s="31" t="s">
-        <v>497</v>
-      </c>
-      <c r="AY2" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="AZ2" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="BA2" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="BB2" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="BE2" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="BF2" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="BG2" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="BH2" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="BI2" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="BJ2" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="BK2" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="BL2" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="BM2" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="BN2" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="BO2" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="BP2" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="BQ2" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="BR2" s="29" t="s">
-        <v>459</v>
-      </c>
-      <c r="BS2" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="BT2" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="BU2" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="BV2" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="BW2" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="BX2" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="BY2" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="BZ2" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="CA2" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="CB2" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="CC2" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="CD2" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="CE2" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="CF2" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="CG2" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="CH2" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="CI2" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="CJ2" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="CK2" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="CL2" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="CM2" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="CN2" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="CO2" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="CP2" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="CQ2" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="CR2" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="CS2" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="CT2" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="CU2" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="CV2" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="CW2" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="CX2" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="CY2" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="CZ2" s="38" t="s">
+      <c r="AF17" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="AG17" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH17" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="DA2" s="38" t="s">
+      <c r="AI17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL17" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="AT17" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="AU17" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="AV17" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="AW17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AX17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ17" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="BA17" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="BB17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ17" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="BK17" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="BL17" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM17" s="8"/>
+      <c r="BN17" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="BO17" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BP17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BQ17" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BR17" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BS17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BT17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BU17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BV17" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BW17" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BX17" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="BY17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BZ17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CA17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CB17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CC17" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="CD17" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="CE17" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="CF17" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="CG17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CH17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="CJ17" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="CK17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CL17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CM17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CN17" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="CO17" s="8"/>
+    </row>
+    <row r="18" spans="2:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="F18" s="8">
+        <v>108</v>
+      </c>
+      <c r="G18" s="8">
+        <v>108</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="DB2" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="DC2" s="38" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="H3" s="13">
-        <v>2018</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="P3" s="3">
-        <v>716</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AH3" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AM3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="AQ3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="BC3" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="I18" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="J18">
+        <v>2014</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="S18">
+        <v>604</v>
+      </c>
+      <c r="T18" s="13"/>
+      <c r="U18" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="V18" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="W18" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="X18" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="H4" s="13">
-        <v>2018</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="P4" s="3">
-        <v>819.95100000000002</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13">
-        <v>245.98599999999999</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="AQ4" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR4" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="BC4" s="13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AP5" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="AQ5" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR5" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-    </row>
-    <row r="6" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="H6">
-        <v>2015</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="P6">
-        <v>59</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8" t="s">
+      <c r="Y18" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AG18" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH18" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL18" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="AT18" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="AU18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AX18" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="AY18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ18" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ18" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="BK18" s="8"/>
+      <c r="BL18" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM18" s="8"/>
+      <c r="BN18" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="BO18" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BP18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BQ18" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BR18" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BS18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BT18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BU18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BV18" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BW18" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BX18" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="BY18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BZ18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CA18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CB18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CC18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CD18" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="CE18" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="CF18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CG18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CH18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="CJ18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CK18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CL18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CM18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="CN18" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="CO18" s="8"/>
+    </row>
+    <row r="20" spans="2:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>774</v>
+      </c>
+      <c r="C20" t="s">
+        <v>775</v>
+      </c>
+      <c r="E20" t="s">
+        <v>802</v>
+      </c>
+      <c r="F20">
+        <v>1001</v>
+      </c>
+      <c r="G20">
+        <v>1001</v>
+      </c>
+      <c r="H20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I20" t="s">
         <v>334</v>
       </c>
-      <c r="Y6" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="AD6" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG6" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="BB6" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="BC6" s="19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="H7">
-        <v>2017</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="P7">
-        <v>986</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AM7" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="AQ7" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR7" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="BA7" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="BB7" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8">
-        <v>2015</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB8" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ8" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="AK8" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="AL8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AM8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="AQ8" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="BA8" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="BB8" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="BC8" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="H9">
-        <v>2015</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="P9">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA9" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB9" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC9" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="AD9" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8">
-        <v>14</v>
-      </c>
-      <c r="AG9" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="AH9" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="AI9" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="AJ9" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="AK9" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL9" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="AM9" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="AQ9" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR9" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="BA9" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="BB9" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="BC9" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="BD9" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21"/>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21"/>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21"/>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21"/>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-    </row>
-    <row r="10" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="H10">
+      <c r="J20">
         <v>2016</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="P10">
-        <v>181</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="W10" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="Y10" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="AA10" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB10" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="AC10" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD10" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="AE10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF10">
-        <v>88</v>
-      </c>
-      <c r="AG10" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="AH10" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="AI10" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="AJ10" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="AK10" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL10" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="AM10" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ10" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="AR10" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="BE10" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="BF10" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="BG10" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="BH10" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="BI10" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="BJ10" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="BK10" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="BL10" s="21" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="H11">
-        <v>2015</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="P11">
-        <v>296</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="W11" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="X11" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="Y11" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="AA11" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB11" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC11" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="AD11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AF11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG11" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="AH11" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="AI11" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="AJ11" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="AK11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AM11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AN11" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="AO11" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="AP11" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="AQ11" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AS11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AU11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AV11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AW11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AX11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AY11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AZ11" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="BA11" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="BB11" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="BC11" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="BE11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="BF11" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="BG11" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="BH11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="BI11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="BJ11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="BK11" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="BL11" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="BM11" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="BN11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="BO11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="BP11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="BQ11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="BR11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="BS11" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="BT11" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="BU11" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="BV11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="BW11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="BX11" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="BY11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="BZ11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="CA11" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="CB11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="CC11" s="8" t="s">
-        <v>510</v>
+      <c r="K20" t="s">
+        <v>803</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:BA1"/>
-    <mergeCell ref="BD1:CC1"/>
-    <mergeCell ref="CD1:DC1"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:BK1"/>
+    <mergeCell ref="BO1:CN1"/>
+    <mergeCell ref="CP1:DO1"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="BC11" r:id="rId1" xr:uid="{2E588990-E6DC-244F-8579-F44F45514AD3}"/>
+    <hyperlink ref="BN16" r:id="rId1" xr:uid="{2E588990-E6DC-244F-8579-F44F45514AD3}"/>
+    <hyperlink ref="BN8" r:id="rId2" xr:uid="{BD91F3CF-8FE5-E043-95AE-C5F58743BF40}"/>
+    <hyperlink ref="BN17" r:id="rId3" display="mark.plitt@nih.gov" xr:uid="{16659A0E-B5AC-7A4B-AAC0-9D517A28E446}"/>
+    <hyperlink ref="BN18" r:id="rId4" display="mark.plitt@nih.gov" xr:uid="{6FF72AD8-ACDA-6142-B489-9999524DDF9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>